--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="121">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,48 +72,48 @@
     <t>10</t>
   </si>
   <si>
+    <t>20220308</t>
+  </si>
+  <si>
     <t>jovyan</t>
   </si>
   <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
     <t>/c/e</t>
   </si>
   <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
-    <t>20220308</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-08 14:47:39.927738</t>
+    <t>2022-03-08 14:52:59.628024</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -192,13 +192,106 @@
     <t>The percentage of time where the operative temperature exceeds the threshold (26 degrees celsius) over the total annual time.</t>
   </si>
   <si>
+    <t>Room Name</t>
+  </si>
+  <si>
+    <t>Fixed Temp Criterion (Pass/Fail)</t>
+  </si>
+  <si>
     <t>Room ID</t>
   </si>
   <si>
-    <t>Fixed Temp Criterion (Pass/Fail)</t>
-  </si>
-  <si>
-    <t>Room Name</t>
+    <t>1S000001</t>
+  </si>
+  <si>
+    <t>1S000002</t>
+  </si>
+  <si>
+    <t>1S000003</t>
+  </si>
+  <si>
+    <t>1S000004</t>
+  </si>
+  <si>
+    <t>1S000005</t>
+  </si>
+  <si>
+    <t>1S000006</t>
+  </si>
+  <si>
+    <t>1S000007</t>
+  </si>
+  <si>
+    <t>2N000001</t>
+  </si>
+  <si>
+    <t>2N000002</t>
+  </si>
+  <si>
+    <t>2N000003</t>
+  </si>
+  <si>
+    <t>2N000004</t>
+  </si>
+  <si>
+    <t>2N000005</t>
+  </si>
+  <si>
+    <t>2N000006</t>
+  </si>
+  <si>
+    <t>2N000007</t>
+  </si>
+  <si>
+    <t>2N000008</t>
+  </si>
+  <si>
+    <t>3R000001</t>
+  </si>
+  <si>
+    <t>3R000002</t>
+  </si>
+  <si>
+    <t>3R000003</t>
+  </si>
+  <si>
+    <t>3R000004</t>
+  </si>
+  <si>
+    <t>3R000005</t>
+  </si>
+  <si>
+    <t>3R000006</t>
+  </si>
+  <si>
+    <t>3R000007</t>
+  </si>
+  <si>
+    <t>3R000008</t>
+  </si>
+  <si>
+    <t>4T000001</t>
+  </si>
+  <si>
+    <t>4T000002</t>
+  </si>
+  <si>
+    <t>4T000003</t>
+  </si>
+  <si>
+    <t>4T000004</t>
+  </si>
+  <si>
+    <t>4T000005</t>
+  </si>
+  <si>
+    <t>4T000006</t>
+  </si>
+  <si>
+    <t>4T000007</t>
+  </si>
+  <si>
+    <t>4T000008</t>
   </si>
   <si>
     <t>A_01_XX_XX_ApartmentSW</t>
@@ -292,99 +385,6 @@
   </si>
   <si>
     <t>A_04_XX_XX_ApartmentN2</t>
-  </si>
-  <si>
-    <t>1S000001</t>
-  </si>
-  <si>
-    <t>1S000002</t>
-  </si>
-  <si>
-    <t>1S000003</t>
-  </si>
-  <si>
-    <t>1S000004</t>
-  </si>
-  <si>
-    <t>1S000005</t>
-  </si>
-  <si>
-    <t>1S000006</t>
-  </si>
-  <si>
-    <t>1S000007</t>
-  </si>
-  <si>
-    <t>2N000001</t>
-  </si>
-  <si>
-    <t>2N000002</t>
-  </si>
-  <si>
-    <t>2N000003</t>
-  </si>
-  <si>
-    <t>2N000004</t>
-  </si>
-  <si>
-    <t>2N000005</t>
-  </si>
-  <si>
-    <t>2N000006</t>
-  </si>
-  <si>
-    <t>2N000007</t>
-  </si>
-  <si>
-    <t>2N000008</t>
-  </si>
-  <si>
-    <t>3R000001</t>
-  </si>
-  <si>
-    <t>3R000002</t>
-  </si>
-  <si>
-    <t>3R000003</t>
-  </si>
-  <si>
-    <t>3R000004</t>
-  </si>
-  <si>
-    <t>3R000005</t>
-  </si>
-  <si>
-    <t>3R000006</t>
-  </si>
-  <si>
-    <t>3R000007</t>
-  </si>
-  <si>
-    <t>3R000008</t>
-  </si>
-  <si>
-    <t>4T000001</t>
-  </si>
-  <si>
-    <t>4T000002</t>
-  </si>
-  <si>
-    <t>4T000003</t>
-  </si>
-  <si>
-    <t>4T000004</t>
-  </si>
-  <si>
-    <t>4T000005</t>
-  </si>
-  <si>
-    <t>4T000006</t>
-  </si>
-  <si>
-    <t>4T000007</t>
-  </si>
-  <si>
-    <t>4T000008</t>
   </si>
   <si>
     <t>Fail</t>
@@ -571,10 +571,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
-    <tableColumn id="3" name="JobNo"/>
+    <tableColumn id="2" name="Date"/>
+    <tableColumn id="3" name="Author"/>
     <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="5" name="JobNo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -584,8 +584,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:D32" totalsRowShown="0">
   <autoFilter ref="A1:D32"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
@@ -597,8 +597,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:D32" totalsRowShown="0">
   <autoFilter ref="A1:D32"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
@@ -610,8 +610,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:D32" totalsRowShown="0">
   <autoFilter ref="A1:D32"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
@@ -645,8 +645,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D32" totalsRowShown="0">
   <autoFilter ref="A1:D32"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
@@ -658,8 +658,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:D32" totalsRowShown="0">
   <autoFilter ref="A1:D32"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
@@ -671,8 +671,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D32" totalsRowShown="0">
   <autoFilter ref="A1:D32"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
@@ -684,8 +684,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:D32" totalsRowShown="0">
   <autoFilter ref="A1:D32"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
@@ -697,8 +697,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:D32" totalsRowShown="0">
   <autoFilter ref="A1:D32"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
@@ -710,8 +710,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:D32" totalsRowShown="0">
   <autoFilter ref="A1:D32"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Room Name"/>
-    <tableColumn id="2" name="Room ID"/>
+    <tableColumn id="1" name="Room ID"/>
+    <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -27,12 +27,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="121">
   <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>sheet_name</t>
   </si>
   <si>
@@ -72,12 +72,12 @@
     <t>10</t>
   </si>
   <si>
+    <t>jovyan</t>
+  </si>
+  <si>
     <t>20220308</t>
   </si>
   <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>Project Information</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-08 14:52:59.628024</t>
+    <t>2022-03-08 17:54:33.453856</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -571,8 +571,8 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Date"/>
-    <tableColumn id="3" name="Author"/>
+    <tableColumn id="2" name="Author"/>
+    <tableColumn id="3" name="Date"/>
     <tableColumn id="4" name="sheet_name"/>
     <tableColumn id="5" name="JobNo"/>
   </tableColumns>
@@ -586,8 +586,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -599,8 +599,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -612,8 +612,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -647,8 +647,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -660,8 +660,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -673,8 +673,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -686,8 +686,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -699,8 +699,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -712,8 +712,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1253,10 +1253,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1266,11 +1266,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1280,11 +1280,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1294,11 +1294,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1308,11 +1308,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1322,11 +1322,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1336,11 +1336,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1350,11 +1350,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1364,11 +1364,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1378,11 +1378,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1392,11 +1392,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1406,11 +1406,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>24.03</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1420,11 +1420,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1434,11 +1434,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1448,11 +1448,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1462,11 +1462,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1476,11 +1476,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1490,11 +1490,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1504,11 +1504,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1518,11 +1518,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1532,11 +1532,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.88</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1546,11 +1546,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1560,11 +1560,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1574,11 +1574,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1588,11 +1588,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1602,11 +1602,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1616,11 +1616,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1630,11 +1630,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1644,11 +1644,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.470000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1658,11 +1658,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1672,11 +1672,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1686,11 +1686,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1722,10 +1722,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1735,11 +1735,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1749,11 +1749,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1763,11 +1763,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1777,11 +1777,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1791,11 +1791,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1805,11 +1805,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1819,11 +1819,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1833,11 +1833,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1847,11 +1847,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1861,11 +1861,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1875,11 +1875,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>24.03</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1889,11 +1889,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1903,11 +1903,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1917,11 +1917,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1931,11 +1931,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1945,11 +1945,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1959,11 +1959,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1973,11 +1973,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1987,11 +1987,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2001,11 +2001,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2015,11 +2015,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2029,11 +2029,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2043,11 +2043,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2057,11 +2057,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2071,11 +2071,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2085,11 +2085,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2099,11 +2099,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.67</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2113,11 +2113,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.470000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2127,11 +2127,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2141,11 +2141,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2155,11 +2155,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2191,10 +2191,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2204,11 +2204,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2218,11 +2218,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2232,11 +2232,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2246,11 +2246,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2260,11 +2260,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2274,11 +2274,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2288,11 +2288,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2302,11 +2302,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2316,11 +2316,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2330,11 +2330,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2344,11 +2344,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>24.03</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2358,11 +2358,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2372,11 +2372,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2386,11 +2386,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2400,11 +2400,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2414,11 +2414,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2428,11 +2428,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2442,11 +2442,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2456,11 +2456,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2470,11 +2470,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2484,11 +2484,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2498,11 +2498,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2512,11 +2512,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2526,11 +2526,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2540,11 +2540,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2554,11 +2554,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2568,11 +2568,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.67</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2582,11 +2582,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.470000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2596,11 +2596,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2610,11 +2610,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2624,11 +2624,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2811,10 +2811,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2824,11 +2824,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2838,11 +2838,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2852,11 +2852,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2866,11 +2866,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2880,11 +2880,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2894,11 +2894,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2908,11 +2908,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2922,11 +2922,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2936,11 +2936,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2950,11 +2950,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2964,11 +2964,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>23.88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2978,11 +2978,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2992,11 +2992,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3006,11 +3006,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3020,11 +3020,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3034,11 +3034,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.82</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3048,11 +3048,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3062,11 +3062,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3076,11 +3076,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3090,11 +3090,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3104,11 +3104,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.49</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3118,11 +3118,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3132,11 +3132,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3146,11 +3146,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3160,11 +3160,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3174,11 +3174,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.67</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3188,11 +3188,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3202,11 +3202,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.470000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3216,11 +3216,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3230,11 +3230,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3244,11 +3244,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3280,10 +3280,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3293,11 +3293,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3307,11 +3307,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3321,11 +3321,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3335,11 +3335,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3349,11 +3349,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3363,11 +3363,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3377,11 +3377,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3391,11 +3391,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3405,11 +3405,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3419,11 +3419,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3433,11 +3433,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>23.9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3447,11 +3447,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3461,11 +3461,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3475,11 +3475,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3489,11 +3489,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3503,11 +3503,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3517,11 +3517,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3531,11 +3531,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3545,11 +3545,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3559,11 +3559,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3573,11 +3573,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3587,11 +3587,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3601,11 +3601,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3615,11 +3615,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3629,11 +3629,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3643,11 +3643,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.67</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3657,11 +3657,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3671,11 +3671,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3685,11 +3685,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3699,11 +3699,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.449999999999999</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3713,11 +3713,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3749,10 +3749,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3762,11 +3762,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3776,11 +3776,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3790,11 +3790,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3804,11 +3804,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3818,11 +3818,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3832,11 +3832,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3846,11 +3846,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3860,11 +3860,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3874,11 +3874,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3888,11 +3888,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3902,11 +3902,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>23.9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3916,11 +3916,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.94</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3930,11 +3930,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3944,11 +3944,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3958,11 +3958,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3972,11 +3972,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3986,11 +3986,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4000,11 +4000,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4014,11 +4014,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.63</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4028,11 +4028,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4042,11 +4042,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4056,11 +4056,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4070,11 +4070,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.94</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4084,11 +4084,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4098,11 +4098,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4112,11 +4112,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.69</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4126,11 +4126,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.53</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4140,11 +4140,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4154,11 +4154,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4168,11 +4168,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.449999999999999</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4182,11 +4182,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4218,10 +4218,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4231,11 +4231,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4245,11 +4245,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4259,11 +4259,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4273,11 +4273,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4287,11 +4287,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4301,11 +4301,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4315,11 +4315,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4329,11 +4329,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4343,11 +4343,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4357,11 +4357,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4371,11 +4371,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>23.96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4385,11 +4385,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.94</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4399,11 +4399,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4413,11 +4413,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4427,11 +4427,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4441,11 +4441,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4455,11 +4455,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4469,11 +4469,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4483,11 +4483,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4497,11 +4497,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4511,11 +4511,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4525,11 +4525,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4539,11 +4539,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4553,11 +4553,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4567,11 +4567,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4581,11 +4581,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.69</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4595,11 +4595,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.57</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4609,11 +4609,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4623,11 +4623,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4637,11 +4637,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.449999999999999</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4651,11 +4651,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4687,10 +4687,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4700,11 +4700,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4714,11 +4714,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4728,11 +4728,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4742,11 +4742,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4756,11 +4756,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4770,11 +4770,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4784,11 +4784,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4798,11 +4798,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4812,11 +4812,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4826,11 +4826,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4840,11 +4840,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>23.96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4854,11 +4854,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4868,11 +4868,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4882,11 +4882,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4896,11 +4896,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4910,11 +4910,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4924,11 +4924,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4938,11 +4938,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4952,11 +4952,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4966,11 +4966,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4980,11 +4980,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4994,11 +4994,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5008,11 +5008,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.92</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5022,11 +5022,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5036,11 +5036,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5050,11 +5050,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.71</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5064,11 +5064,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.59</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5078,11 +5078,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5092,11 +5092,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5106,11 +5106,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5120,11 +5120,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5156,10 +5156,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5169,11 +5169,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5183,11 +5183,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5197,11 +5197,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5211,11 +5211,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5225,11 +5225,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5239,11 +5239,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5253,11 +5253,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5267,11 +5267,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5281,11 +5281,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5295,11 +5295,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5309,11 +5309,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5323,11 +5323,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5337,11 +5337,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5351,11 +5351,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5365,11 +5365,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5379,11 +5379,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5393,11 +5393,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5407,11 +5407,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5421,11 +5421,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5435,11 +5435,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5449,11 +5449,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5463,11 +5463,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5477,11 +5477,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.92</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5491,11 +5491,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5505,11 +5505,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5519,11 +5519,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5533,11 +5533,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.63</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5547,11 +5547,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5561,11 +5561,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5575,11 +5575,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5589,11 +5589,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="121">
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,46 +72,46 @@
     <t>10</t>
   </si>
   <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
+    <t>/c/e</t>
+  </si>
+  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>20220308</t>
-  </si>
-  <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
-    <t>/c/e</t>
+    <t>20220309</t>
   </si>
   <si>
     <t>index</t>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-08 17:54:33.453856</t>
+    <t>2022-03-09 10:59:06.519565</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -571,10 +571,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="JobNo"/>
+    <tableColumn id="2" name="sheet_name"/>
+    <tableColumn id="3" name="JobNo"/>
+    <tableColumn id="4" name="Author"/>
+    <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -586,8 +586,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -599,8 +599,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -612,8 +612,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -647,8 +647,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -660,8 +660,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -673,8 +673,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -686,8 +686,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -699,8 +699,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -712,8 +712,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1044,10 +1044,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1058,13 +1058,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1075,13 +1075,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1092,13 +1092,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1109,13 +1109,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1126,13 +1126,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1143,13 +1143,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1160,13 +1160,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1177,13 +1177,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1194,13 +1194,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1211,10 +1211,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -1253,10 +1253,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1266,11 +1266,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1280,11 +1280,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1294,11 +1294,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1308,11 +1308,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1322,11 +1322,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1336,11 +1336,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1350,11 +1350,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1364,11 +1364,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1378,11 +1378,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1392,11 +1392,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1406,11 +1406,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>24.03</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1420,11 +1420,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1434,11 +1434,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1448,11 +1448,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1462,11 +1462,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1476,11 +1476,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1490,11 +1490,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1504,11 +1504,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1518,11 +1518,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1532,11 +1532,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1546,11 +1546,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1560,11 +1560,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1574,11 +1574,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1588,11 +1588,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1602,11 +1602,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1616,11 +1616,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1630,11 +1630,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1644,11 +1644,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.470000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1658,11 +1658,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1672,11 +1672,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1686,11 +1686,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1722,10 +1722,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1735,11 +1735,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1749,11 +1749,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1763,11 +1763,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1777,11 +1777,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1791,11 +1791,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1805,11 +1805,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1819,11 +1819,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1833,11 +1833,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1847,11 +1847,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1861,11 +1861,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1875,11 +1875,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>24.03</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1889,11 +1889,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1903,11 +1903,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1917,11 +1917,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1931,11 +1931,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1945,11 +1945,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1959,11 +1959,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1973,11 +1973,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1987,11 +1987,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2001,11 +2001,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2015,11 +2015,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2029,11 +2029,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2043,11 +2043,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2057,11 +2057,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2071,11 +2071,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2085,11 +2085,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2099,11 +2099,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2113,11 +2113,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.470000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2127,11 +2127,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2141,11 +2141,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2155,11 +2155,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2191,10 +2191,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2204,11 +2204,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2218,11 +2218,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2232,11 +2232,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2246,11 +2246,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2260,11 +2260,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2274,11 +2274,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2288,11 +2288,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2302,11 +2302,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2316,11 +2316,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2330,11 +2330,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2344,11 +2344,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>24.03</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2358,11 +2358,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2372,11 +2372,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2386,11 +2386,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2400,11 +2400,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2414,11 +2414,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2428,11 +2428,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2442,11 +2442,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2456,11 +2456,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2470,11 +2470,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2484,11 +2484,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2498,11 +2498,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2512,11 +2512,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2526,11 +2526,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2540,11 +2540,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2554,11 +2554,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2568,11 +2568,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2582,11 +2582,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.470000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2596,11 +2596,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2610,11 +2610,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2624,11 +2624,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2811,10 +2811,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2824,11 +2824,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2838,11 +2838,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2852,11 +2852,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2866,11 +2866,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2880,11 +2880,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2894,11 +2894,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2908,11 +2908,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2922,11 +2922,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2936,11 +2936,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2950,11 +2950,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2964,11 +2964,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>23.88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2978,11 +2978,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2992,11 +2992,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3006,11 +3006,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3020,11 +3020,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3034,11 +3034,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3048,11 +3048,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3062,11 +3062,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3076,11 +3076,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3090,11 +3090,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3104,11 +3104,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3118,11 +3118,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3132,11 +3132,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3146,11 +3146,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3160,11 +3160,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3174,11 +3174,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3188,11 +3188,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3202,11 +3202,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.470000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3216,11 +3216,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3230,11 +3230,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.460000000000001</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3244,11 +3244,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3280,10 +3280,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3293,11 +3293,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3307,11 +3307,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3321,11 +3321,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3335,11 +3335,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3349,11 +3349,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3363,11 +3363,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3377,11 +3377,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3391,11 +3391,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3405,11 +3405,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3419,11 +3419,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3433,11 +3433,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>23.9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3447,11 +3447,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3461,11 +3461,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3475,11 +3475,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3489,11 +3489,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3503,11 +3503,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3517,11 +3517,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3531,11 +3531,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3545,11 +3545,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3559,11 +3559,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3573,11 +3573,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3587,11 +3587,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3601,11 +3601,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3615,11 +3615,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3629,11 +3629,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3643,11 +3643,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3657,11 +3657,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3671,11 +3671,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.460000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3685,11 +3685,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3699,11 +3699,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.449999999999999</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3713,11 +3713,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3749,10 +3749,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3762,11 +3762,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3776,11 +3776,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3790,11 +3790,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3804,11 +3804,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3818,11 +3818,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3832,11 +3832,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3846,11 +3846,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3860,11 +3860,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3874,11 +3874,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3888,11 +3888,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3902,11 +3902,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>23.9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3916,11 +3916,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3930,11 +3930,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3944,11 +3944,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3958,11 +3958,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3972,11 +3972,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3986,11 +3986,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4000,11 +4000,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4014,11 +4014,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4028,11 +4028,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4042,11 +4042,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4056,11 +4056,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4070,11 +4070,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4084,11 +4084,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4098,11 +4098,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4112,11 +4112,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4126,11 +4126,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4140,11 +4140,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.460000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4154,11 +4154,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4168,11 +4168,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.449999999999999</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4182,11 +4182,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4218,10 +4218,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4231,11 +4231,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4245,11 +4245,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4259,11 +4259,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4273,11 +4273,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4287,11 +4287,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4301,11 +4301,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4315,11 +4315,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4329,11 +4329,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4343,11 +4343,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4357,11 +4357,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4371,11 +4371,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>23.96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4385,11 +4385,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4399,11 +4399,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4413,11 +4413,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4427,11 +4427,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4441,11 +4441,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4455,11 +4455,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4469,11 +4469,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4483,11 +4483,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4497,11 +4497,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4511,11 +4511,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4525,11 +4525,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4539,11 +4539,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4553,11 +4553,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4567,11 +4567,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4581,11 +4581,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4595,11 +4595,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4609,11 +4609,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.460000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4623,11 +4623,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4637,11 +4637,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.449999999999999</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4651,11 +4651,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4687,10 +4687,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4700,11 +4700,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4714,11 +4714,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4728,11 +4728,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4742,11 +4742,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4756,11 +4756,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4770,11 +4770,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4784,11 +4784,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4798,11 +4798,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4812,11 +4812,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4826,11 +4826,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4840,11 +4840,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>23.96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4854,11 +4854,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4868,11 +4868,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4882,11 +4882,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4896,11 +4896,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4910,11 +4910,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4924,11 +4924,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4938,11 +4938,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4952,11 +4952,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4966,11 +4966,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4980,11 +4980,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4994,11 +4994,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5008,11 +5008,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5022,11 +5022,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5036,11 +5036,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5050,11 +5050,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5064,11 +5064,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5078,11 +5078,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.460000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5092,11 +5092,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5106,11 +5106,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5120,11 +5120,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5156,10 +5156,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5169,11 +5169,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5183,11 +5183,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5197,11 +5197,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5211,11 +5211,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5225,11 +5225,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5239,11 +5239,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5253,11 +5253,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5267,11 +5267,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5281,11 +5281,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5295,11 +5295,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5309,11 +5309,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5323,11 +5323,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5337,11 +5337,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5351,11 +5351,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5365,11 +5365,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5379,11 +5379,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5393,11 +5393,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5407,11 +5407,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5421,11 +5421,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5435,11 +5435,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5449,11 +5449,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5463,11 +5463,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5477,11 +5477,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5491,11 +5491,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5505,11 +5505,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5519,11 +5519,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5533,11 +5533,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5547,11 +5547,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.460000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5561,11 +5561,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5575,11 +5575,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5589,11 +5589,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="121">
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,6 +72,12 @@
     <t>10</t>
   </si>
   <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>20220316</t>
+  </si>
+  <si>
     <t>Project Information</t>
   </si>
   <si>
@@ -105,15 +111,9 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>20220309</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-09 10:59:06.519565</t>
+    <t>2022-03-16 17:29:22.271374</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -571,10 +571,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="sheet_name"/>
-    <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="Author"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="2" name="JobNo"/>
+    <tableColumn id="3" name="Date"/>
+    <tableColumn id="4" name="sheet_name"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -586,8 +586,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -599,8 +599,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -612,8 +612,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -647,8 +647,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -660,8 +660,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -673,8 +673,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -686,8 +686,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -699,8 +699,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -712,8 +712,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1044,10 +1044,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1058,13 +1058,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1075,13 +1075,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1092,13 +1092,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1109,13 +1109,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1126,13 +1126,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1143,13 +1143,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1160,13 +1160,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1177,13 +1177,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1194,13 +1194,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1211,10 +1211,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -1253,10 +1253,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1266,11 +1266,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1280,11 +1280,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1294,11 +1294,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1308,11 +1308,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1322,11 +1322,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1336,11 +1336,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1350,11 +1350,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1364,11 +1364,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1378,11 +1378,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1392,11 +1392,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1406,11 +1406,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>24.03</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1420,11 +1420,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1434,11 +1434,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1448,11 +1448,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1462,11 +1462,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1476,11 +1476,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1490,11 +1490,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1504,11 +1504,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1518,11 +1518,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1532,11 +1532,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.88</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1546,11 +1546,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1560,11 +1560,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1574,11 +1574,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1588,11 +1588,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1602,11 +1602,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1616,11 +1616,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1630,11 +1630,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1644,11 +1644,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.470000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1658,11 +1658,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1672,11 +1672,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1686,11 +1686,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1722,10 +1722,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1735,11 +1735,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1749,11 +1749,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1763,11 +1763,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1777,11 +1777,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1791,11 +1791,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1805,11 +1805,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1819,11 +1819,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1833,11 +1833,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1847,11 +1847,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1861,11 +1861,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1875,11 +1875,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>24.03</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1889,11 +1889,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1903,11 +1903,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1917,11 +1917,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1931,11 +1931,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1945,11 +1945,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1959,11 +1959,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1973,11 +1973,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1987,11 +1987,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2001,11 +2001,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2015,11 +2015,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2029,11 +2029,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2043,11 +2043,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2057,11 +2057,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2071,11 +2071,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2085,11 +2085,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2099,11 +2099,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.67</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2113,11 +2113,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.470000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2127,11 +2127,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2141,11 +2141,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2155,11 +2155,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2191,10 +2191,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2204,11 +2204,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2218,11 +2218,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2232,11 +2232,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2246,11 +2246,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2260,11 +2260,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2274,11 +2274,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2288,11 +2288,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2302,11 +2302,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2316,11 +2316,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2330,11 +2330,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2344,11 +2344,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>24.03</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2358,11 +2358,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2372,11 +2372,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2386,11 +2386,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2400,11 +2400,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2414,11 +2414,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2428,11 +2428,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2442,11 +2442,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2456,11 +2456,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2470,11 +2470,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2484,11 +2484,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2498,11 +2498,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2512,11 +2512,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2526,11 +2526,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2540,11 +2540,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2554,11 +2554,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2568,11 +2568,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.67</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2582,11 +2582,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.470000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2596,11 +2596,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2610,11 +2610,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2624,11 +2624,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2811,10 +2811,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2824,11 +2824,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2838,11 +2838,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2852,11 +2852,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2866,11 +2866,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2880,11 +2880,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2894,11 +2894,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2908,11 +2908,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2922,11 +2922,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2936,11 +2936,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2950,11 +2950,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2964,11 +2964,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>23.88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2978,11 +2978,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2992,11 +2992,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3006,11 +3006,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3020,11 +3020,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3034,11 +3034,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.82</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3048,11 +3048,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3062,11 +3062,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3076,11 +3076,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3090,11 +3090,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3104,11 +3104,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.49</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3118,11 +3118,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3132,11 +3132,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3146,11 +3146,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3160,11 +3160,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3174,11 +3174,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.67</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3188,11 +3188,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3202,11 +3202,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.470000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3216,11 +3216,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3230,11 +3230,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3244,11 +3244,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3280,10 +3280,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3293,11 +3293,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3307,11 +3307,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3321,11 +3321,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3335,11 +3335,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3349,11 +3349,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3363,11 +3363,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3377,11 +3377,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3391,11 +3391,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3405,11 +3405,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3419,11 +3419,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3433,11 +3433,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>23.9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3447,11 +3447,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3461,11 +3461,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3475,11 +3475,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3489,11 +3489,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3503,11 +3503,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3517,11 +3517,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3531,11 +3531,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3545,11 +3545,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3559,11 +3559,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3573,11 +3573,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3587,11 +3587,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3601,11 +3601,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3615,11 +3615,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3629,11 +3629,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3643,11 +3643,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.67</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3657,11 +3657,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3671,11 +3671,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3685,11 +3685,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3699,11 +3699,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.449999999999999</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3713,11 +3713,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3749,10 +3749,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3762,11 +3762,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3776,11 +3776,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3790,11 +3790,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3804,11 +3804,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3818,11 +3818,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3832,11 +3832,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3846,11 +3846,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3860,11 +3860,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3874,11 +3874,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3888,11 +3888,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3902,11 +3902,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>23.9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3916,11 +3916,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.94</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3930,11 +3930,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3944,11 +3944,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3958,11 +3958,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3972,11 +3972,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3986,11 +3986,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4000,11 +4000,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4014,11 +4014,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.63</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4028,11 +4028,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4042,11 +4042,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4056,11 +4056,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4070,11 +4070,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.94</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4084,11 +4084,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4098,11 +4098,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4112,11 +4112,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.69</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4126,11 +4126,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.53</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4140,11 +4140,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4154,11 +4154,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4168,11 +4168,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.449999999999999</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4182,11 +4182,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4218,10 +4218,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4231,11 +4231,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4245,11 +4245,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4259,11 +4259,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4273,11 +4273,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4287,11 +4287,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4301,11 +4301,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4315,11 +4315,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4329,11 +4329,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4343,11 +4343,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4357,11 +4357,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4371,11 +4371,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>23.96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4385,11 +4385,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.94</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4399,11 +4399,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4413,11 +4413,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4427,11 +4427,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4441,11 +4441,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4455,11 +4455,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4469,11 +4469,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4483,11 +4483,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4497,11 +4497,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4511,11 +4511,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4525,11 +4525,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4539,11 +4539,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4553,11 +4553,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4567,11 +4567,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4581,11 +4581,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.69</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4595,11 +4595,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.57</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4609,11 +4609,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4623,11 +4623,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4637,11 +4637,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.449999999999999</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4651,11 +4651,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4687,10 +4687,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4700,11 +4700,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4714,11 +4714,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4728,11 +4728,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4742,11 +4742,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4756,11 +4756,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4770,11 +4770,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4784,11 +4784,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4798,11 +4798,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4812,11 +4812,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4826,11 +4826,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4840,11 +4840,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>23.96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4854,11 +4854,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4868,11 +4868,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4882,11 +4882,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4896,11 +4896,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4910,11 +4910,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4924,11 +4924,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4938,11 +4938,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4952,11 +4952,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4966,11 +4966,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4980,11 +4980,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4994,11 +4994,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5008,11 +5008,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.92</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5022,11 +5022,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5036,11 +5036,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5050,11 +5050,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.71</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5064,11 +5064,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.59</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5078,11 +5078,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5092,11 +5092,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5106,11 +5106,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5120,11 +5120,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5156,10 +5156,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5169,11 +5169,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5183,11 +5183,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
         <v>16.5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5197,11 +5197,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
         <v>16.67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5211,11 +5211,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5225,11 +5225,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
         <v>5.74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5239,11 +5239,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5253,11 +5253,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8">
         <v>5.55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5267,11 +5267,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
         <v>17.85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5281,11 +5281,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
         <v>23.75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5295,11 +5295,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11">
         <v>18.57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5309,11 +5309,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12">
         <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5323,11 +5323,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13">
         <v>10.9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5337,11 +5337,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5351,11 +5351,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5365,11 +5365,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16">
         <v>10.94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5379,11 +5379,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17">
         <v>18.81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5393,11 +5393,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18">
         <v>25.5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5407,11 +5407,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19">
         <v>19.49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5421,11 +5421,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
         <v>25.73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5435,11 +5435,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21">
         <v>11.89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5449,11 +5449,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22">
         <v>12.45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5463,11 +5463,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23">
         <v>12.68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5477,11 +5477,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24">
         <v>11.92</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5491,11 +5491,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25">
         <v>14.47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5505,11 +5505,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>20.42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5519,11 +5519,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27">
         <v>14.7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5533,11 +5533,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
         <v>20.63</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5547,11 +5547,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5561,11 +5561,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
         <v>9.33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5575,11 +5575,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
         <v>9.44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5589,11 +5589,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -30,15 +30,15 @@
     <t>JobNo</t>
   </si>
   <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -75,7 +75,10 @@
     <t>/c/e</t>
   </si>
   <si>
-    <t>20220316</t>
+    <t>jovyan</t>
+  </si>
+  <si>
+    <t>20220324</t>
   </si>
   <si>
     <t>Project Information</t>
@@ -111,9 +114,6 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-16 17:29:22.271374</t>
+    <t>2022-03-24 17:14:06.454540</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -572,9 +572,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="3" name="Author"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="sheet_name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -586,8 +586,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -599,8 +599,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -612,8 +612,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -647,8 +647,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -660,8 +660,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -673,8 +673,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -686,8 +686,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -699,8 +699,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -712,8 +712,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1050,7 +1050,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1081,10 +1081,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1098,10 +1098,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1115,10 +1115,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1132,10 +1132,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1149,10 +1149,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1166,10 +1166,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1183,10 +1183,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1200,10 +1200,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1217,7 +1217,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
@@ -1253,10 +1253,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1266,11 +1266,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1280,11 +1280,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1294,11 +1294,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1308,11 +1308,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1322,11 +1322,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1336,11 +1336,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1350,11 +1350,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1364,11 +1364,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1378,11 +1378,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1392,11 +1392,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1406,11 +1406,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>24.03</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1420,11 +1420,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1434,11 +1434,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1448,11 +1448,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1462,11 +1462,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1476,11 +1476,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1490,11 +1490,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1504,11 +1504,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1518,11 +1518,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1532,11 +1532,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1546,11 +1546,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1560,11 +1560,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1574,11 +1574,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1588,11 +1588,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1602,11 +1602,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1616,11 +1616,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1630,11 +1630,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1644,11 +1644,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.470000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1658,11 +1658,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1672,11 +1672,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1686,11 +1686,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1722,10 +1722,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1735,11 +1735,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1749,11 +1749,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1763,11 +1763,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1777,11 +1777,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1791,11 +1791,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1805,11 +1805,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1819,11 +1819,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1833,11 +1833,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1847,11 +1847,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1861,11 +1861,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1875,11 +1875,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>24.03</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1889,11 +1889,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1903,11 +1903,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1917,11 +1917,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1931,11 +1931,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1945,11 +1945,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1959,11 +1959,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1973,11 +1973,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1987,11 +1987,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2001,11 +2001,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2015,11 +2015,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2029,11 +2029,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2043,11 +2043,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2057,11 +2057,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2071,11 +2071,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2085,11 +2085,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2099,11 +2099,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2113,11 +2113,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.470000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2127,11 +2127,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2141,11 +2141,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2155,11 +2155,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2191,10 +2191,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2204,11 +2204,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2218,11 +2218,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2232,11 +2232,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2246,11 +2246,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2260,11 +2260,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2274,11 +2274,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2288,11 +2288,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2302,11 +2302,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2316,11 +2316,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2330,11 +2330,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2344,11 +2344,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>24.03</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2358,11 +2358,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2372,11 +2372,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2386,11 +2386,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2400,11 +2400,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2414,11 +2414,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2428,11 +2428,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2442,11 +2442,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2456,11 +2456,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2470,11 +2470,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2484,11 +2484,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2498,11 +2498,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2512,11 +2512,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2526,11 +2526,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2540,11 +2540,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2554,11 +2554,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2568,11 +2568,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2582,11 +2582,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.470000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2596,11 +2596,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2610,11 +2610,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2624,11 +2624,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2811,10 +2811,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2824,11 +2824,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2838,11 +2838,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2852,11 +2852,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2866,11 +2866,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2880,11 +2880,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2894,11 +2894,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2908,11 +2908,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2922,11 +2922,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2936,11 +2936,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2950,11 +2950,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2964,11 +2964,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>23.88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2978,11 +2978,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2992,11 +2992,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3006,11 +3006,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3020,11 +3020,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3034,11 +3034,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3048,11 +3048,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3062,11 +3062,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3076,11 +3076,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3090,11 +3090,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3104,11 +3104,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3118,11 +3118,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3132,11 +3132,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3146,11 +3146,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3160,11 +3160,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3174,11 +3174,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3188,11 +3188,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3202,11 +3202,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.470000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3216,11 +3216,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3230,11 +3230,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.460000000000001</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3244,11 +3244,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3280,10 +3280,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3293,11 +3293,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3307,11 +3307,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3321,11 +3321,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3335,11 +3335,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3349,11 +3349,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3363,11 +3363,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3377,11 +3377,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3391,11 +3391,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3405,11 +3405,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3419,11 +3419,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3433,11 +3433,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>23.9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3447,11 +3447,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3461,11 +3461,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3475,11 +3475,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3489,11 +3489,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3503,11 +3503,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3517,11 +3517,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3531,11 +3531,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3545,11 +3545,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3559,11 +3559,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3573,11 +3573,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3587,11 +3587,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3601,11 +3601,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3615,11 +3615,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3629,11 +3629,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3643,11 +3643,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3657,11 +3657,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3671,11 +3671,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.460000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3685,11 +3685,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3699,11 +3699,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.449999999999999</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3713,11 +3713,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3749,10 +3749,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3762,11 +3762,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3776,11 +3776,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3790,11 +3790,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3804,11 +3804,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3818,11 +3818,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3832,11 +3832,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3846,11 +3846,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3860,11 +3860,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3874,11 +3874,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3888,11 +3888,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3902,11 +3902,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>23.9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3916,11 +3916,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3930,11 +3930,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3944,11 +3944,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3958,11 +3958,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3972,11 +3972,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3986,11 +3986,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4000,11 +4000,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4014,11 +4014,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4028,11 +4028,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4042,11 +4042,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4056,11 +4056,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4070,11 +4070,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4084,11 +4084,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4098,11 +4098,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4112,11 +4112,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4126,11 +4126,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4140,11 +4140,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.460000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4154,11 +4154,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4168,11 +4168,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.449999999999999</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4182,11 +4182,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4218,10 +4218,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4231,11 +4231,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4245,11 +4245,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4259,11 +4259,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4273,11 +4273,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4287,11 +4287,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4301,11 +4301,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4315,11 +4315,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4329,11 +4329,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4343,11 +4343,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4357,11 +4357,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4371,11 +4371,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>23.96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4385,11 +4385,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4399,11 +4399,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4413,11 +4413,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4427,11 +4427,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4441,11 +4441,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4455,11 +4455,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4469,11 +4469,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4483,11 +4483,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4497,11 +4497,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4511,11 +4511,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4525,11 +4525,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4539,11 +4539,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4553,11 +4553,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4567,11 +4567,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4581,11 +4581,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4595,11 +4595,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4609,11 +4609,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.460000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4623,11 +4623,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4637,11 +4637,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.449999999999999</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4651,11 +4651,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4687,10 +4687,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4700,11 +4700,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4714,11 +4714,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4728,11 +4728,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4742,11 +4742,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4756,11 +4756,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4770,11 +4770,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4784,11 +4784,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4798,11 +4798,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4812,11 +4812,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4826,11 +4826,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4840,11 +4840,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>23.96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4854,11 +4854,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4868,11 +4868,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4882,11 +4882,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4896,11 +4896,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4910,11 +4910,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4924,11 +4924,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4938,11 +4938,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4952,11 +4952,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4966,11 +4966,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4980,11 +4980,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4994,11 +4994,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5008,11 +5008,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5022,11 +5022,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5036,11 +5036,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5050,11 +5050,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5064,11 +5064,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5078,11 +5078,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.460000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5092,11 +5092,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5106,11 +5106,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5120,11 +5120,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5156,10 +5156,10 @@
         <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5169,11 +5169,11 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>11.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5183,11 +5183,11 @@
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>16.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5197,11 +5197,11 @@
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>16.67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5211,11 +5211,11 @@
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>5.57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5225,11 +5225,11 @@
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>5.74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5239,11 +5239,11 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>5.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5253,11 +5253,11 @@
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>5.55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5267,11 +5267,11 @@
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>17.85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5281,11 +5281,11 @@
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>23.75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5295,11 +5295,11 @@
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>18.57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5309,11 +5309,11 @@
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5323,11 +5323,11 @@
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>10.9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5337,11 +5337,11 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>11.37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5351,11 +5351,11 @@
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>11.4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5365,11 +5365,11 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>10.94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5379,11 +5379,11 @@
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>18.81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5393,11 +5393,11 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>25.5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5407,11 +5407,11 @@
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>19.49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5421,11 +5421,11 @@
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>25.73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5435,11 +5435,11 @@
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>11.89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5449,11 +5449,11 @@
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>12.45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5463,11 +5463,11 @@
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>12.68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5477,11 +5477,11 @@
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5491,11 +5491,11 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>14.47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5505,11 +5505,11 @@
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>20.42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5519,11 +5519,11 @@
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>14.7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5533,11 +5533,11 @@
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>20.63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5547,11 +5547,11 @@
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>9.460000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5561,11 +5561,11 @@
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>9.33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5575,11 +5575,11 @@
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31">
+      <c r="C31">
         <v>9.44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5589,11 +5589,11 @@
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32">
+      <c r="C32">
         <v>9.59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="123">
   <si>
     <t>JobNo</t>
   </si>
@@ -129,6 +129,9 @@
     <t>Job Number</t>
   </si>
   <si>
+    <t>Reporting Interval</t>
+  </si>
+  <si>
     <t>Analysed Spaces</t>
   </si>
   <si>
@@ -159,6 +162,9 @@
     <t>C:\IES Shared Content\Weather\HeathrowEWY.fwt</t>
   </si>
   <si>
+    <t>60.0 minutes</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
@@ -177,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-24 17:14:06.454540</t>
+    <t>2022-03-24 17:32:13.899151</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -186,7 +192,7 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)</t>
+    <t>Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)</t>
   </si>
   <si>
     <t>The percentage of time where the operative temperature exceeds the threshold (26 degrees celsius) over the total annual time.</t>
@@ -586,7 +592,7 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -599,7 +605,7 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -612,7 +618,7 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -620,8 +626,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0">
-  <autoFilter ref="A1:B12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B13" totalsRowShown="0">
+  <autoFilter ref="A1:B13"/>
   <tableColumns count="2">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
@@ -647,7 +653,7 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -660,7 +666,7 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -673,7 +679,7 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -686,7 +692,7 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -699,7 +705,7 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -712,7 +718,7 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1247,450 +1253,450 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="80" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>11.2</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>16.5</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>16.67</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>5.58</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>5.74</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>5.7</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>5.55</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>17.87</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>23.75</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>18.57</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <v>24.03</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>10.9</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C14">
         <v>11.37</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C15">
         <v>11.4</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>10.94</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C17">
         <v>18.81</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C18">
         <v>25.52</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C19">
         <v>19.47</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C20">
         <v>25.73</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C21">
         <v>11.88</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C22">
         <v>12.45</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C23">
         <v>12.67</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C24">
         <v>11.91</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C25">
         <v>14.46</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C26">
         <v>20.44</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C27">
         <v>14.7</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C28">
         <v>20.65</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C29">
         <v>9.470000000000001</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C30">
         <v>9.32</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C31">
         <v>9.44</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C32">
         <v>9.59</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1716,450 +1722,450 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="80" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>11.2</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>16.52</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>16.67</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>5.58</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>5.73</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>5.7</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>5.55</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>17.87</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>23.75</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>18.57</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <v>24.03</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>10.9</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C14">
         <v>11.37</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C15">
         <v>11.4</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>10.92</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C17">
         <v>18.81</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C18">
         <v>25.54</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C19">
         <v>19.47</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C20">
         <v>25.75</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C21">
         <v>11.87</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C22">
         <v>12.45</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C23">
         <v>12.67</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C24">
         <v>11.91</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C25">
         <v>14.45</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C26">
         <v>20.48</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C27">
         <v>14.7</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C28">
         <v>20.67</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C29">
         <v>9.470000000000001</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C30">
         <v>9.32</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C31">
         <v>9.44</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C32">
         <v>9.59</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2185,450 +2191,450 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="80" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>11.2</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>16.52</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>16.67</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>5.58</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>5.73</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>5.7</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>5.54</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>17.87</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>23.77</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>18.57</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <v>24.03</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>10.89</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C14">
         <v>11.37</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C15">
         <v>11.4</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>10.92</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C17">
         <v>18.81</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C18">
         <v>25.54</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C19">
         <v>19.47</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C20">
         <v>25.75</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C21">
         <v>11.87</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C22">
         <v>12.47</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C23">
         <v>12.67</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C24">
         <v>11.91</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C25">
         <v>14.45</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C26">
         <v>20.48</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C27">
         <v>14.7</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C28">
         <v>20.67</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C29">
         <v>9.470000000000001</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C30">
         <v>9.32</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C31">
         <v>9.44</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C32">
         <v>9.59</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +2647,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2665,7 +2671,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2673,7 +2679,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2686,7 +2692,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2694,7 +2700,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2702,7 +2708,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2710,7 +2716,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2718,7 +2724,7 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2726,7 +2732,7 @@
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2734,7 +2740,7 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2742,7 +2748,15 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2771,15 +2785,15 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2805,450 +2819,450 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="80" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>11.21</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>16.33</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>16.52</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>5.57</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>5.76</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>5.65</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>5.56</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>17.87</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>23.69</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>18.61</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <v>23.88</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>10.95</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C14">
         <v>11.38</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C15">
         <v>11.39</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>10.94</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C17">
         <v>18.82</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C18">
         <v>25.37</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C19">
         <v>19.5</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C20">
         <v>25.58</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C21">
         <v>11.91</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C22">
         <v>12.49</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C23">
         <v>12.67</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C24">
         <v>11.93</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C25">
         <v>14.45</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C26">
         <v>20.3</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C27">
         <v>14.67</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C28">
         <v>20.42</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C29">
         <v>9.470000000000001</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C30">
         <v>9.33</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C31">
         <v>9.460000000000001</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C32">
         <v>9.58</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3274,450 +3288,450 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="80" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>11.21</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>16.33</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>16.56</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>5.57</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>5.76</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>5.66</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>5.57</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>17.87</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>23.73</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>18.6</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <v>23.9</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>10.95</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C14">
         <v>11.37</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C15">
         <v>11.4</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>10.95</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C17">
         <v>18.8</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C18">
         <v>25.37</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C19">
         <v>19.5</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C20">
         <v>25.61</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C21">
         <v>11.89</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C22">
         <v>12.47</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C23">
         <v>12.67</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C24">
         <v>11.93</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C25">
         <v>14.45</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C26">
         <v>20.32</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C27">
         <v>14.67</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C28">
         <v>20.48</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C29">
         <v>9.460000000000001</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C30">
         <v>9.33</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C31">
         <v>9.449999999999999</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C32">
         <v>9.59</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3743,450 +3757,450 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="80" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>11.2</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>16.42</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>16.59</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>5.57</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>5.76</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>5.67</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>5.58</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>17.87</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>23.73</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>18.58</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <v>23.9</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>10.94</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C14">
         <v>11.37</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C15">
         <v>11.39</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>10.95</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C17">
         <v>18.8</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C18">
         <v>25.48</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C19">
         <v>19.5</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C20">
         <v>25.63</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C21">
         <v>11.89</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C22">
         <v>12.45</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C23">
         <v>12.68</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C24">
         <v>11.94</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C25">
         <v>14.47</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C26">
         <v>20.36</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C27">
         <v>14.69</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C28">
         <v>20.53</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C29">
         <v>9.460000000000001</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C30">
         <v>9.32</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C31">
         <v>9.449999999999999</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C32">
         <v>9.59</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4212,450 +4226,450 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="80" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>11.2</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>16.44</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>16.63</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>5.57</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>5.75</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>5.7</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>5.56</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>17.87</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>23.73</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>18.57</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <v>23.96</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>10.94</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C14">
         <v>11.37</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C15">
         <v>11.42</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>10.95</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C17">
         <v>18.8</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C18">
         <v>25.48</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C19">
         <v>19.5</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C20">
         <v>25.71</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C21">
         <v>11.89</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C22">
         <v>12.48</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C23">
         <v>12.65</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C24">
         <v>11.93</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C25">
         <v>14.47</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C26">
         <v>20.36</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C27">
         <v>14.69</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C28">
         <v>20.57</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C29">
         <v>9.460000000000001</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C30">
         <v>9.32</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C31">
         <v>9.449999999999999</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C32">
         <v>9.59</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4681,450 +4695,450 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="80" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>11.21</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>16.46</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>16.65</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>5.57</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>5.74</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>5.7</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>5.56</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>17.85</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>23.73</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>18.56</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <v>23.96</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>10.91</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C14">
         <v>11.37</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C15">
         <v>11.4</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>10.95</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C17">
         <v>18.8</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C18">
         <v>25.5</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C19">
         <v>19.46</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C20">
         <v>25.73</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C21">
         <v>11.89</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C22">
         <v>12.45</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C23">
         <v>12.66</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C24">
         <v>11.92</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C25">
         <v>14.46</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C26">
         <v>20.4</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C27">
         <v>14.71</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C28">
         <v>20.59</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C29">
         <v>9.460000000000001</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C30">
         <v>9.32</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C31">
         <v>9.44</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C32">
         <v>9.59</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5150,450 +5164,450 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="80" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>11.2</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>16.5</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>16.67</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>5.57</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>5.74</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>5.7</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>5.55</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>17.85</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>23.75</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>18.57</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>10.9</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C14">
         <v>11.37</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C15">
         <v>11.4</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>10.94</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C17">
         <v>18.81</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C18">
         <v>25.5</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C19">
         <v>19.49</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C20">
         <v>25.73</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C21">
         <v>11.89</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C22">
         <v>12.45</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C23">
         <v>12.68</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C24">
         <v>11.92</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C25">
         <v>14.47</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C26">
         <v>20.42</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C27">
         <v>14.7</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C28">
         <v>20.63</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C29">
         <v>9.460000000000001</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C30">
         <v>9.33</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C31">
         <v>9.44</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C32">
         <v>9.59</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="123">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,48 +72,48 @@
     <t>10</t>
   </si>
   <si>
+    <t>20220325</t>
+  </si>
+  <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
+    <t>jovyan</t>
+  </si>
+  <si>
     <t>/c/e</t>
   </si>
   <si>
-    <t>jovyan</t>
-  </si>
-  <si>
-    <t>20220324</t>
-  </si>
-  <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-24 17:32:13.899151</t>
+    <t>2022-03-25 12:39:46.622318</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -577,10 +577,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Author"/>
-    <tableColumn id="4" name="Date"/>
-    <tableColumn id="5" name="sheet_name"/>
+    <tableColumn id="2" name="Date"/>
+    <tableColumn id="3" name="sheet_name"/>
+    <tableColumn id="4" name="Author"/>
+    <tableColumn id="5" name="JobNo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1053,10 +1053,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1067,13 +1067,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1084,13 +1084,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1101,13 +1101,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1118,13 +1118,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1135,13 +1135,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1152,13 +1152,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1169,13 +1169,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1186,13 +1186,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1203,13 +1203,13 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1220,10 +1220,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="123">
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,48 +72,48 @@
     <t>10</t>
   </si>
   <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>jovyan</t>
+  </si>
+  <si>
     <t>20220325</t>
   </si>
   <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
-    <t>jovyan</t>
-  </si>
-  <si>
-    <t>/c/e</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-25 12:39:46.622318</t>
+    <t>2022-03-25 13:28:14.556661</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -192,10 +192,10 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)</t>
-  </si>
-  <si>
-    <t>The percentage of time where the operative temperature exceeds the threshold (26 degrees celsius) over the total annual time.</t>
+    <t>Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)</t>
+  </si>
+  <si>
+    <t>The percentage of hours where the operative temperature exceeds the threshold (26 degrees celsius) over the total annual hours.</t>
   </si>
   <si>
     <t>Room Name</t>
@@ -577,10 +577,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Date"/>
-    <tableColumn id="3" name="sheet_name"/>
+    <tableColumn id="2" name="sheet_name"/>
+    <tableColumn id="3" name="JobNo"/>
     <tableColumn id="4" name="Author"/>
-    <tableColumn id="5" name="JobNo"/>
+    <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -592,8 +592,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -605,8 +605,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -618,8 +618,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -653,8 +653,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -666,8 +666,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -679,8 +679,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -692,8 +692,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -705,8 +705,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -718,8 +718,8 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="Fixed Temp Criterion (% Time Operative Temp &gt; 26 Deg. Celsius)"/>
-    <tableColumn id="4" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
+    <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1050,7 +1050,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>27</v>
@@ -1064,10 +1064,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>27</v>
@@ -1081,10 +1081,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>27</v>
@@ -1098,10 +1098,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
@@ -1115,10 +1115,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>27</v>
@@ -1132,10 +1132,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -1149,10 +1149,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
@@ -1166,10 +1166,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -1183,10 +1183,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
@@ -1200,10 +1200,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
@@ -1217,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -1259,10 +1259,10 @@
         <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1272,11 +1272,11 @@
       <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1286,11 +1286,11 @@
       <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3">
         <v>16.5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1300,11 +1300,11 @@
       <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4">
         <v>16.67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1314,11 +1314,11 @@
       <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5">
         <v>5.58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1328,11 +1328,11 @@
       <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6">
         <v>5.74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1342,11 +1342,11 @@
       <c r="B7" t="s">
         <v>96</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1356,11 +1356,11 @@
       <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8">
         <v>5.55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1370,11 +1370,11 @@
       <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1384,11 +1384,11 @@
       <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
         <v>23.75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1398,11 +1398,11 @@
       <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11">
         <v>18.57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1412,11 +1412,11 @@
       <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
         <v>24.03</v>
-      </c>
-      <c r="D12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1426,11 +1426,11 @@
       <c r="B13" t="s">
         <v>102</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13">
         <v>10.9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1440,11 +1440,11 @@
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1454,11 +1454,11 @@
       <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1468,11 +1468,11 @@
       <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16">
         <v>10.94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1482,11 +1482,11 @@
       <c r="B17" t="s">
         <v>106</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17">
         <v>18.81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1496,11 +1496,11 @@
       <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18">
         <v>25.52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1510,11 +1510,11 @@
       <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19">
         <v>19.47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1524,11 +1524,11 @@
       <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20">
         <v>25.73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1538,11 +1538,11 @@
       <c r="B21" t="s">
         <v>110</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21">
         <v>11.88</v>
-      </c>
-      <c r="D21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1552,11 +1552,11 @@
       <c r="B22" t="s">
         <v>111</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22">
         <v>12.45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1566,11 +1566,11 @@
       <c r="B23" t="s">
         <v>112</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23">
         <v>12.67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1580,11 +1580,11 @@
       <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24">
         <v>11.91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1594,11 +1594,11 @@
       <c r="B25" t="s">
         <v>114</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25">
         <v>14.46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1608,11 +1608,11 @@
       <c r="B26" t="s">
         <v>115</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26">
         <v>20.44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1622,11 +1622,11 @@
       <c r="B27" t="s">
         <v>116</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27">
         <v>14.7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1636,11 +1636,11 @@
       <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28">
         <v>20.65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1650,11 +1650,11 @@
       <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29">
         <v>9.470000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1664,11 +1664,11 @@
       <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1678,11 +1678,11 @@
       <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31">
         <v>9.44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1692,11 +1692,11 @@
       <c r="B32" t="s">
         <v>121</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1728,10 +1728,10 @@
         <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1741,11 +1741,11 @@
       <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1755,11 +1755,11 @@
       <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3">
         <v>16.52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1769,11 +1769,11 @@
       <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4">
         <v>16.67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1783,11 +1783,11 @@
       <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5">
         <v>5.58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1797,11 +1797,11 @@
       <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6">
         <v>5.73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1811,11 +1811,11 @@
       <c r="B7" t="s">
         <v>96</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1825,11 +1825,11 @@
       <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8">
         <v>5.55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1839,11 +1839,11 @@
       <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1853,11 +1853,11 @@
       <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
         <v>23.75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1867,11 +1867,11 @@
       <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11">
         <v>18.57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1881,11 +1881,11 @@
       <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
         <v>24.03</v>
-      </c>
-      <c r="D12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1895,11 +1895,11 @@
       <c r="B13" t="s">
         <v>102</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13">
         <v>10.9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1909,11 +1909,11 @@
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1923,11 +1923,11 @@
       <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1937,11 +1937,11 @@
       <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16">
         <v>10.92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1951,11 +1951,11 @@
       <c r="B17" t="s">
         <v>106</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17">
         <v>18.81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1965,11 +1965,11 @@
       <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18">
         <v>25.54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1979,11 +1979,11 @@
       <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19">
         <v>19.47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1993,11 +1993,11 @@
       <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20">
         <v>25.75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2007,11 +2007,11 @@
       <c r="B21" t="s">
         <v>110</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21">
         <v>11.87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2021,11 +2021,11 @@
       <c r="B22" t="s">
         <v>111</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22">
         <v>12.45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2035,11 +2035,11 @@
       <c r="B23" t="s">
         <v>112</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23">
         <v>12.67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2049,11 +2049,11 @@
       <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24">
         <v>11.91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2063,11 +2063,11 @@
       <c r="B25" t="s">
         <v>114</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25">
         <v>14.45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2077,11 +2077,11 @@
       <c r="B26" t="s">
         <v>115</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26">
         <v>20.48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2091,11 +2091,11 @@
       <c r="B27" t="s">
         <v>116</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27">
         <v>14.7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2105,11 +2105,11 @@
       <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28">
         <v>20.67</v>
-      </c>
-      <c r="D28" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2119,11 +2119,11 @@
       <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29">
         <v>9.470000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2133,11 +2133,11 @@
       <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2147,11 +2147,11 @@
       <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31">
         <v>9.44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2161,11 +2161,11 @@
       <c r="B32" t="s">
         <v>121</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2197,10 +2197,10 @@
         <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2210,11 +2210,11 @@
       <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2224,11 +2224,11 @@
       <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3">
         <v>16.52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2238,11 +2238,11 @@
       <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4">
         <v>16.67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2252,11 +2252,11 @@
       <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5">
         <v>5.58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2266,11 +2266,11 @@
       <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6">
         <v>5.73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2280,11 +2280,11 @@
       <c r="B7" t="s">
         <v>96</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2294,11 +2294,11 @@
       <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8">
         <v>5.54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2308,11 +2308,11 @@
       <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2322,11 +2322,11 @@
       <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
         <v>23.77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2336,11 +2336,11 @@
       <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11">
         <v>18.57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2350,11 +2350,11 @@
       <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
         <v>24.03</v>
-      </c>
-      <c r="D12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2364,11 +2364,11 @@
       <c r="B13" t="s">
         <v>102</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13">
         <v>10.89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2378,11 +2378,11 @@
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2392,11 +2392,11 @@
       <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2406,11 +2406,11 @@
       <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16">
         <v>10.92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2420,11 +2420,11 @@
       <c r="B17" t="s">
         <v>106</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17">
         <v>18.81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2434,11 +2434,11 @@
       <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18">
         <v>25.54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2448,11 +2448,11 @@
       <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19">
         <v>19.47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2462,11 +2462,11 @@
       <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20">
         <v>25.75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2476,11 +2476,11 @@
       <c r="B21" t="s">
         <v>110</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21">
         <v>11.87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2490,11 +2490,11 @@
       <c r="B22" t="s">
         <v>111</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22">
         <v>12.47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2504,11 +2504,11 @@
       <c r="B23" t="s">
         <v>112</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23">
         <v>12.67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2518,11 +2518,11 @@
       <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24">
         <v>11.91</v>
-      </c>
-      <c r="D24" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2532,11 +2532,11 @@
       <c r="B25" t="s">
         <v>114</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25">
         <v>14.45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2546,11 +2546,11 @@
       <c r="B26" t="s">
         <v>115</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26">
         <v>20.48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2560,11 +2560,11 @@
       <c r="B27" t="s">
         <v>116</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27">
         <v>14.7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2574,11 +2574,11 @@
       <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28">
         <v>20.67</v>
-      </c>
-      <c r="D28" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2588,11 +2588,11 @@
       <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29">
         <v>9.470000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2602,11 +2602,11 @@
       <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2616,11 +2616,11 @@
       <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31">
         <v>9.44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2630,11 +2630,11 @@
       <c r="B32" t="s">
         <v>121</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2825,10 +2825,10 @@
         <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2838,11 +2838,11 @@
       <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2">
         <v>11.21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2852,11 +2852,11 @@
       <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3">
         <v>16.33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2866,11 +2866,11 @@
       <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4">
         <v>16.52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2880,11 +2880,11 @@
       <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2894,11 +2894,11 @@
       <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6">
         <v>5.76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2908,11 +2908,11 @@
       <c r="B7" t="s">
         <v>96</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7">
         <v>5.65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2922,11 +2922,11 @@
       <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8">
         <v>5.56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2936,11 +2936,11 @@
       <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2950,11 +2950,11 @@
       <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
         <v>23.69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2964,11 +2964,11 @@
       <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11">
         <v>18.61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2978,11 +2978,11 @@
       <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
         <v>23.88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2992,11 +2992,11 @@
       <c r="B13" t="s">
         <v>102</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13">
         <v>10.95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3006,11 +3006,11 @@
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14">
         <v>11.38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3020,11 +3020,11 @@
       <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15">
         <v>11.39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3034,11 +3034,11 @@
       <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16">
         <v>10.94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3048,11 +3048,11 @@
       <c r="B17" t="s">
         <v>106</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17">
         <v>18.82</v>
-      </c>
-      <c r="D17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3062,11 +3062,11 @@
       <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18">
         <v>25.37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3076,11 +3076,11 @@
       <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19">
         <v>19.5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3090,11 +3090,11 @@
       <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20">
         <v>25.58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3104,11 +3104,11 @@
       <c r="B21" t="s">
         <v>110</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21">
         <v>11.91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3118,11 +3118,11 @@
       <c r="B22" t="s">
         <v>111</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22">
         <v>12.49</v>
-      </c>
-      <c r="D22" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3132,11 +3132,11 @@
       <c r="B23" t="s">
         <v>112</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23">
         <v>12.67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3146,11 +3146,11 @@
       <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24">
         <v>11.93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3160,11 +3160,11 @@
       <c r="B25" t="s">
         <v>114</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25">
         <v>14.45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3174,11 +3174,11 @@
       <c r="B26" t="s">
         <v>115</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26">
         <v>20.3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3188,11 +3188,11 @@
       <c r="B27" t="s">
         <v>116</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27">
         <v>14.67</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3202,11 +3202,11 @@
       <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28">
         <v>20.42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3216,11 +3216,11 @@
       <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29">
         <v>9.470000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3230,11 +3230,11 @@
       <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30">
         <v>9.33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3244,11 +3244,11 @@
       <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3258,11 +3258,11 @@
       <c r="B32" t="s">
         <v>121</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32">
         <v>9.58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3294,10 +3294,10 @@
         <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3307,11 +3307,11 @@
       <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2">
         <v>11.21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3321,11 +3321,11 @@
       <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3">
         <v>16.33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3335,11 +3335,11 @@
       <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4">
         <v>16.56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3349,11 +3349,11 @@
       <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3363,11 +3363,11 @@
       <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6">
         <v>5.76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3377,11 +3377,11 @@
       <c r="B7" t="s">
         <v>96</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7">
         <v>5.66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3391,11 +3391,11 @@
       <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8">
         <v>5.57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3405,11 +3405,11 @@
       <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3419,11 +3419,11 @@
       <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
         <v>23.73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3433,11 +3433,11 @@
       <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11">
         <v>18.6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3447,11 +3447,11 @@
       <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
         <v>23.9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3461,11 +3461,11 @@
       <c r="B13" t="s">
         <v>102</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13">
         <v>10.95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3475,11 +3475,11 @@
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3489,11 +3489,11 @@
       <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3503,11 +3503,11 @@
       <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16">
         <v>10.95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3517,11 +3517,11 @@
       <c r="B17" t="s">
         <v>106</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17">
         <v>18.8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3531,11 +3531,11 @@
       <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18">
         <v>25.37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3545,11 +3545,11 @@
       <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19">
         <v>19.5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3559,11 +3559,11 @@
       <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20">
         <v>25.61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3573,11 +3573,11 @@
       <c r="B21" t="s">
         <v>110</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21">
         <v>11.89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3587,11 +3587,11 @@
       <c r="B22" t="s">
         <v>111</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22">
         <v>12.47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3601,11 +3601,11 @@
       <c r="B23" t="s">
         <v>112</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23">
         <v>12.67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3615,11 +3615,11 @@
       <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24">
         <v>11.93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3629,11 +3629,11 @@
       <c r="B25" t="s">
         <v>114</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25">
         <v>14.45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3643,11 +3643,11 @@
       <c r="B26" t="s">
         <v>115</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26">
         <v>20.32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3657,11 +3657,11 @@
       <c r="B27" t="s">
         <v>116</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27">
         <v>14.67</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3671,11 +3671,11 @@
       <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28">
         <v>20.48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3685,11 +3685,11 @@
       <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3699,11 +3699,11 @@
       <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30">
         <v>9.33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3713,11 +3713,11 @@
       <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31">
         <v>9.449999999999999</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3727,11 +3727,11 @@
       <c r="B32" t="s">
         <v>121</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3763,10 +3763,10 @@
         <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3776,11 +3776,11 @@
       <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3790,11 +3790,11 @@
       <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3">
         <v>16.42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3804,11 +3804,11 @@
       <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4">
         <v>16.59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3818,11 +3818,11 @@
       <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3832,11 +3832,11 @@
       <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6">
         <v>5.76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3846,11 +3846,11 @@
       <c r="B7" t="s">
         <v>96</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7">
         <v>5.67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3860,11 +3860,11 @@
       <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8">
         <v>5.58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3874,11 +3874,11 @@
       <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3888,11 +3888,11 @@
       <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
         <v>23.73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3902,11 +3902,11 @@
       <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11">
         <v>18.58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3916,11 +3916,11 @@
       <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
         <v>23.9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3930,11 +3930,11 @@
       <c r="B13" t="s">
         <v>102</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13">
         <v>10.94</v>
-      </c>
-      <c r="D13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3944,11 +3944,11 @@
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3958,11 +3958,11 @@
       <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15">
         <v>11.39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3972,11 +3972,11 @@
       <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16">
         <v>10.95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3986,11 +3986,11 @@
       <c r="B17" t="s">
         <v>106</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17">
         <v>18.8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4000,11 +4000,11 @@
       <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18">
         <v>25.48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4014,11 +4014,11 @@
       <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19">
         <v>19.5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4028,11 +4028,11 @@
       <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20">
         <v>25.63</v>
-      </c>
-      <c r="D20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4042,11 +4042,11 @@
       <c r="B21" t="s">
         <v>110</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21">
         <v>11.89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4056,11 +4056,11 @@
       <c r="B22" t="s">
         <v>111</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22">
         <v>12.45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4070,11 +4070,11 @@
       <c r="B23" t="s">
         <v>112</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23">
         <v>12.68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4084,11 +4084,11 @@
       <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24">
         <v>11.94</v>
-      </c>
-      <c r="D24" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4098,11 +4098,11 @@
       <c r="B25" t="s">
         <v>114</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25">
         <v>14.47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4112,11 +4112,11 @@
       <c r="B26" t="s">
         <v>115</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26">
         <v>20.36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4126,11 +4126,11 @@
       <c r="B27" t="s">
         <v>116</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27">
         <v>14.69</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4140,11 +4140,11 @@
       <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28">
         <v>20.53</v>
-      </c>
-      <c r="D28" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4154,11 +4154,11 @@
       <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4168,11 +4168,11 @@
       <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4182,11 +4182,11 @@
       <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31">
         <v>9.449999999999999</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4196,11 +4196,11 @@
       <c r="B32" t="s">
         <v>121</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4232,10 +4232,10 @@
         <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4245,11 +4245,11 @@
       <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4259,11 +4259,11 @@
       <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3">
         <v>16.44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4273,11 +4273,11 @@
       <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4">
         <v>16.63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4287,11 +4287,11 @@
       <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4301,11 +4301,11 @@
       <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6">
         <v>5.75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4315,11 +4315,11 @@
       <c r="B7" t="s">
         <v>96</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4329,11 +4329,11 @@
       <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8">
         <v>5.56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4343,11 +4343,11 @@
       <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9">
         <v>17.87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4357,11 +4357,11 @@
       <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
         <v>23.73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4371,11 +4371,11 @@
       <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11">
         <v>18.57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4385,11 +4385,11 @@
       <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
         <v>23.96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4399,11 +4399,11 @@
       <c r="B13" t="s">
         <v>102</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13">
         <v>10.94</v>
-      </c>
-      <c r="D13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4413,11 +4413,11 @@
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4427,11 +4427,11 @@
       <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15">
         <v>11.42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4441,11 +4441,11 @@
       <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16">
         <v>10.95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4455,11 +4455,11 @@
       <c r="B17" t="s">
         <v>106</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17">
         <v>18.8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4469,11 +4469,11 @@
       <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18">
         <v>25.48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4483,11 +4483,11 @@
       <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19">
         <v>19.5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4497,11 +4497,11 @@
       <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20">
         <v>25.71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4511,11 +4511,11 @@
       <c r="B21" t="s">
         <v>110</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21">
         <v>11.89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4525,11 +4525,11 @@
       <c r="B22" t="s">
         <v>111</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22">
         <v>12.48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4539,11 +4539,11 @@
       <c r="B23" t="s">
         <v>112</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23">
         <v>12.65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4553,11 +4553,11 @@
       <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24">
         <v>11.93</v>
-      </c>
-      <c r="D24" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4567,11 +4567,11 @@
       <c r="B25" t="s">
         <v>114</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25">
         <v>14.47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4581,11 +4581,11 @@
       <c r="B26" t="s">
         <v>115</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26">
         <v>20.36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4595,11 +4595,11 @@
       <c r="B27" t="s">
         <v>116</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27">
         <v>14.69</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4609,11 +4609,11 @@
       <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28">
         <v>20.57</v>
-      </c>
-      <c r="D28" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4623,11 +4623,11 @@
       <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4637,11 +4637,11 @@
       <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4651,11 +4651,11 @@
       <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31">
         <v>9.449999999999999</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4665,11 +4665,11 @@
       <c r="B32" t="s">
         <v>121</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4701,10 +4701,10 @@
         <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4714,11 +4714,11 @@
       <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2">
         <v>11.21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4728,11 +4728,11 @@
       <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3">
         <v>16.46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4742,11 +4742,11 @@
       <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4">
         <v>16.65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4756,11 +4756,11 @@
       <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4770,11 +4770,11 @@
       <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6">
         <v>5.74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4784,11 +4784,11 @@
       <c r="B7" t="s">
         <v>96</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4798,11 +4798,11 @@
       <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8">
         <v>5.56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4812,11 +4812,11 @@
       <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9">
         <v>17.85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4826,11 +4826,11 @@
       <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
         <v>23.73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4840,11 +4840,11 @@
       <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11">
         <v>18.56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4854,11 +4854,11 @@
       <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
         <v>23.96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4868,11 +4868,11 @@
       <c r="B13" t="s">
         <v>102</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13">
         <v>10.91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4882,11 +4882,11 @@
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4896,11 +4896,11 @@
       <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4910,11 +4910,11 @@
       <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16">
         <v>10.95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4924,11 +4924,11 @@
       <c r="B17" t="s">
         <v>106</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17">
         <v>18.8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4938,11 +4938,11 @@
       <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18">
         <v>25.5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4952,11 +4952,11 @@
       <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19">
         <v>19.46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4966,11 +4966,11 @@
       <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20">
         <v>25.73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4980,11 +4980,11 @@
       <c r="B21" t="s">
         <v>110</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21">
         <v>11.89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4994,11 +4994,11 @@
       <c r="B22" t="s">
         <v>111</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22">
         <v>12.45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5008,11 +5008,11 @@
       <c r="B23" t="s">
         <v>112</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23">
         <v>12.66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5022,11 +5022,11 @@
       <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24">
         <v>11.92</v>
-      </c>
-      <c r="D24" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5036,11 +5036,11 @@
       <c r="B25" t="s">
         <v>114</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25">
         <v>14.46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5050,11 +5050,11 @@
       <c r="B26" t="s">
         <v>115</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26">
         <v>20.4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5064,11 +5064,11 @@
       <c r="B27" t="s">
         <v>116</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27">
         <v>14.71</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5078,11 +5078,11 @@
       <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28">
         <v>20.59</v>
-      </c>
-      <c r="D28" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5092,11 +5092,11 @@
       <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5106,11 +5106,11 @@
       <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30">
         <v>9.32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5120,11 +5120,11 @@
       <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31">
         <v>9.44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5134,11 +5134,11 @@
       <c r="B32" t="s">
         <v>121</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5170,10 +5170,10 @@
         <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5183,11 +5183,11 @@
       <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2">
         <v>11.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5197,11 +5197,11 @@
       <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3">
         <v>16.5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5211,11 +5211,11 @@
       <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4">
         <v>16.67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5225,11 +5225,11 @@
       <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5">
         <v>5.57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5239,11 +5239,11 @@
       <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6">
         <v>5.74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5253,11 +5253,11 @@
       <c r="B7" t="s">
         <v>96</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5267,11 +5267,11 @@
       <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8">
         <v>5.55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5281,11 +5281,11 @@
       <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9">
         <v>17.85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5295,11 +5295,11 @@
       <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
         <v>23.75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5309,11 +5309,11 @@
       <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11">
         <v>18.57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5323,11 +5323,11 @@
       <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12">
         <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5337,11 +5337,11 @@
       <c r="B13" t="s">
         <v>102</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13">
         <v>10.9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5351,11 +5351,11 @@
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14">
         <v>11.37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5365,11 +5365,11 @@
       <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15">
         <v>11.4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5379,11 +5379,11 @@
       <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16">
         <v>10.94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5393,11 +5393,11 @@
       <c r="B17" t="s">
         <v>106</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17">
         <v>18.81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5407,11 +5407,11 @@
       <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18">
         <v>25.5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5421,11 +5421,11 @@
       <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19">
         <v>19.49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5435,11 +5435,11 @@
       <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20">
         <v>25.73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5449,11 +5449,11 @@
       <c r="B21" t="s">
         <v>110</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21">
         <v>11.89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5463,11 +5463,11 @@
       <c r="B22" t="s">
         <v>111</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22">
         <v>12.45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5477,11 +5477,11 @@
       <c r="B23" t="s">
         <v>112</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23">
         <v>12.68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5491,11 +5491,11 @@
       <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24">
         <v>11.92</v>
-      </c>
-      <c r="D24" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5505,11 +5505,11 @@
       <c r="B25" t="s">
         <v>114</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25">
         <v>14.47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5519,11 +5519,11 @@
       <c r="B26" t="s">
         <v>115</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26">
         <v>20.42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5533,11 +5533,11 @@
       <c r="B27" t="s">
         <v>116</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27">
         <v>14.7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5547,11 +5547,11 @@
       <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28">
         <v>20.63</v>
-      </c>
-      <c r="D28" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5561,11 +5561,11 @@
       <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29">
         <v>9.460000000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5575,11 +5575,11 @@
       <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30">
         <v>9.33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5589,11 +5589,11 @@
       <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31">
         <v>9.44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5603,11 +5603,11 @@
       <c r="B32" t="s">
         <v>121</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32">
         <v>9.59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -30,15 +30,15 @@
     <t>sheet_name</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -105,15 +105,15 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
+    <t>20220325</t>
+  </si>
+  <si>
     <t>/c/e</t>
   </si>
   <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>20220325</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-25 13:28:14.556661</t>
+    <t>2022-03-25 19:32:57.480416</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -578,9 +578,9 @@
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="sheet_name"/>
-    <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="Author"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="3" name="Date"/>
+    <tableColumn id="4" name="JobNo"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="123">
   <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
     <t>sheet_name</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,6 +72,12 @@
     <t>10</t>
   </si>
   <si>
+    <t>jovyan</t>
+  </si>
+  <si>
+    <t>/c/e</t>
+  </si>
+  <si>
     <t>Project Information</t>
   </si>
   <si>
@@ -105,13 +111,7 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>20220325</t>
-  </si>
-  <si>
-    <t>/c/e</t>
-  </si>
-  <si>
-    <t>jovyan</t>
+    <t>20220422</t>
   </si>
   <si>
     <t>index</t>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-25 19:32:57.480416</t>
+    <t>2022-04-22 12:42:31.702336</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -577,10 +577,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="sheet_name"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="JobNo"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="2" name="Author"/>
+    <tableColumn id="3" name="JobNo"/>
+    <tableColumn id="4" name="sheet_name"/>
+    <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1050,10 +1050,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1064,13 +1064,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1081,13 +1081,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1098,13 +1098,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1115,13 +1115,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1132,13 +1132,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1149,13 +1149,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1166,13 +1166,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1183,13 +1183,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1200,13 +1200,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1217,10 +1217,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="121">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,48 +72,48 @@
     <t>10</t>
   </si>
   <si>
+    <t>20220614</t>
+  </si>
+  <si>
+    <t>jovyan</t>
+  </si>
+  <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
     <t>/c/e</t>
   </si>
   <si>
-    <t>20220316</t>
-  </si>
-  <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-03-16 17:29:22.271374</t>
+    <t>2022-06-14 16:11:13.645034</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -571,10 +571,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Date"/>
+    <tableColumn id="2" name="Date"/>
+    <tableColumn id="3" name="Author"/>
     <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="5" name="JobNo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="121">
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,12 +72,12 @@
     <t>10</t>
   </si>
   <si>
+    <t>ngDe</t>
+  </si>
+  <si>
     <t>20220614</t>
   </si>
   <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>Project Information</t>
   </si>
   <si>
@@ -111,7 +111,7 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>/c/e</t>
+    <t>O.Hensby</t>
   </si>
   <si>
     <t>index</t>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-14 16:11:13.645034</t>
+    <t>2022-06-14 16:17:10.816507</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -394,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +405,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -467,7 +475,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -571,10 +579,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Date"/>
-    <tableColumn id="3" name="Author"/>
+    <tableColumn id="2" name="JobNo"/>
+    <tableColumn id="3" name="Date"/>
     <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="JobNo"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -589,7 +597,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -602,7 +610,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -615,7 +623,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -626,7 +634,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -637,7 +645,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -650,7 +658,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -663,7 +671,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -676,7 +684,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -689,7 +697,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -702,7 +710,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -715,7 +723,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1648,7 +1656,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.470000000000001</v>
+        <v>9.47</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2117,7 +2125,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.470000000000001</v>
+        <v>9.47</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2586,7 +2594,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.470000000000001</v>
+        <v>9.47</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3206,7 +3214,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.470000000000001</v>
+        <v>9.47</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3234,7 +3242,7 @@
         <v>120</v>
       </c>
       <c r="D31">
-        <v>9.460000000000001</v>
+        <v>9.46</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3675,7 +3683,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.460000000000001</v>
+        <v>9.46</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3703,7 +3711,7 @@
         <v>120</v>
       </c>
       <c r="D31">
-        <v>9.449999999999999</v>
+        <v>9.45</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4144,7 +4152,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.460000000000001</v>
+        <v>9.46</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4172,7 +4180,7 @@
         <v>120</v>
       </c>
       <c r="D31">
-        <v>9.449999999999999</v>
+        <v>9.45</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4613,7 +4621,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.460000000000001</v>
+        <v>9.46</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4641,7 +4649,7 @@
         <v>120</v>
       </c>
       <c r="D31">
-        <v>9.449999999999999</v>
+        <v>9.45</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5082,7 +5090,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.460000000000001</v>
+        <v>9.46</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5551,7 +5559,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.460000000000001</v>
+        <v>9.46</v>
       </c>
     </row>
     <row r="30" spans="1:4">

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="121">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,12 +72,15 @@
     <t>10</t>
   </si>
   <si>
-    <t>ngDe</t>
-  </si>
-  <si>
     <t>20220614</t>
   </si>
   <si>
+    <t>jovyan</t>
+  </si>
+  <si>
+    <t>/c/e</t>
+  </si>
+  <si>
     <t>Project Information</t>
   </si>
   <si>
@@ -111,9 +114,6 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>O.Hensby</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -177,7 +177,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-14 16:17:10.816507</t>
+    <t>2022-06-14 16:22:52.568217</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -394,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,14 +405,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -475,7 +467,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -579,10 +571,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="2" name="Date"/>
+    <tableColumn id="3" name="Author"/>
+    <tableColumn id="4" name="JobNo"/>
+    <tableColumn id="5" name="sheet_name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -597,7 +589,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -610,7 +602,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -623,7 +615,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -634,7 +626,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -645,7 +637,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -658,7 +650,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -671,7 +663,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -684,7 +676,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -697,7 +689,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -710,7 +702,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -723,7 +715,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1058,7 +1050,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1072,10 +1064,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1089,10 +1081,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1106,10 +1098,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1123,10 +1115,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1140,10 +1132,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1157,10 +1149,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1174,10 +1166,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1191,10 +1183,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1208,10 +1200,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1225,7 +1217,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
@@ -1656,7 +1648,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.47</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2125,7 +2117,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.47</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2594,7 +2586,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.47</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3214,7 +3206,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.47</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3242,7 +3234,7 @@
         <v>120</v>
       </c>
       <c r="D31">
-        <v>9.46</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3683,7 +3675,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.46</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3711,7 +3703,7 @@
         <v>120</v>
       </c>
       <c r="D31">
-        <v>9.45</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4152,7 +4144,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.46</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4180,7 +4172,7 @@
         <v>120</v>
       </c>
       <c r="D31">
-        <v>9.45</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4621,7 +4613,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.46</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4649,7 +4641,7 @@
         <v>120</v>
       </c>
       <c r="D31">
-        <v>9.45</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5090,7 +5082,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.46</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5559,7 +5551,7 @@
         <v>120</v>
       </c>
       <c r="D29">
-        <v>9.46</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4">

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="123">
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,48 +72,48 @@
     <t>10</t>
   </si>
   <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
+    <t>20220614</t>
+  </si>
+  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
-    <t>20220422</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-04-22 12:42:31.702336</t>
+    <t>2022-06-14 16:35:44.620309</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -577,10 +577,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
-    <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="2" name="JobNo"/>
+    <tableColumn id="3" name="sheet_name"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1053,7 +1053,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1067,10 +1067,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1084,10 +1084,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1101,10 +1101,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1118,10 +1118,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1135,10 +1135,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1152,10 +1152,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1169,10 +1169,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1186,10 +1186,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1203,10 +1203,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1220,7 +1220,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -25,17 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="115">
   <si>
     <t>JobNo</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -72,7 +72,10 @@
     <t>10</t>
   </si>
   <si>
-    <t>/c/e</t>
+    <t>ngDe</t>
+  </si>
+  <si>
+    <t>20220614</t>
   </si>
   <si>
     <t>Project Information</t>
@@ -108,10 +111,7 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>20220614</t>
-  </si>
-  <si>
-    <t>jovyan</t>
+    <t>O.Hensby</t>
   </si>
   <si>
     <t>index</t>
@@ -165,7 +165,7 @@
     <t>60.0 minutes</t>
   </si>
   <si>
-    <t>31</t>
+    <t>27</t>
   </si>
   <si>
     <t>['0.1', '0.15', '0.2', '0.3', '0.4', '0.5', '0.6', '0.7', '0.8']</t>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-14 16:35:44.620309</t>
+    <t>2022-06-14 16:38:28.591667</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -207,18 +207,6 @@
     <t>Room ID</t>
   </si>
   <si>
-    <t>1S000001</t>
-  </si>
-  <si>
-    <t>1S000002</t>
-  </si>
-  <si>
-    <t>1S000003</t>
-  </si>
-  <si>
-    <t>1S000004</t>
-  </si>
-  <si>
     <t>1S000005</t>
   </si>
   <si>
@@ -298,18 +286,6 @@
   </si>
   <si>
     <t>4T000008</t>
-  </si>
-  <si>
-    <t>A_01_XX_XX_ApartmentSW</t>
-  </si>
-  <si>
-    <t>A_01_XX_XX_ApartmentS1</t>
-  </si>
-  <si>
-    <t>A_01_XX_XX_ApartmentS2</t>
-  </si>
-  <si>
-    <t>A_01_XX_XX_ApartmentN1</t>
   </si>
   <si>
     <t>A_01_XX_XX_ApartmentNW</t>
@@ -400,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +387,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -473,7 +457,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -578,8 +562,8 @@
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="sheet_name"/>
-    <tableColumn id="4" name="Date"/>
+    <tableColumn id="3" name="Date"/>
+    <tableColumn id="4" name="sheet_name"/>
     <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -587,41 +571,41 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:D32" totalsRowShown="0">
-  <autoFilter ref="A1:D32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:D28" totalsRowShown="0">
+  <autoFilter ref="A1:D28"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:D32" totalsRowShown="0">
-  <autoFilter ref="A1:D32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:D28" totalsRowShown="0">
+  <autoFilter ref="A1:D28"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:D32" totalsRowShown="0">
-  <autoFilter ref="A1:D32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:D28" totalsRowShown="0">
+  <autoFilter ref="A1:D28"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -632,7 +616,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -643,85 +627,85 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D32" totalsRowShown="0">
-  <autoFilter ref="A1:D32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D28" totalsRowShown="0">
+  <autoFilter ref="A1:D28"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:D32" totalsRowShown="0">
-  <autoFilter ref="A1:D32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:D28" totalsRowShown="0">
+  <autoFilter ref="A1:D28"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D32" totalsRowShown="0">
-  <autoFilter ref="A1:D32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D28" totalsRowShown="0">
+  <autoFilter ref="A1:D28"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:D32" totalsRowShown="0">
-  <autoFilter ref="A1:D32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:D28" totalsRowShown="0">
+  <autoFilter ref="A1:D28"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:D32" totalsRowShown="0">
-  <autoFilter ref="A1:D32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:D28" totalsRowShown="0">
+  <autoFilter ref="A1:D28"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:D32" totalsRowShown="0">
-  <autoFilter ref="A1:D32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:D28" totalsRowShown="0">
+  <autoFilter ref="A1:D28"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Room ID"/>
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1053,7 +1037,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1067,10 +1051,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1084,10 +1068,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1101,10 +1085,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1118,10 +1102,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1135,10 +1119,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1152,10 +1136,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1169,10 +1153,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1186,10 +1170,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1203,10 +1187,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1220,7 +1204,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -1240,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1270,13 +1254,13 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D2">
-        <v>11.2</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1284,13 +1268,13 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D3">
-        <v>16.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1298,13 +1282,13 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D4">
-        <v>16.67</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1312,13 +1296,13 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D5">
-        <v>5.58</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1326,13 +1310,13 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D6">
-        <v>5.74</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1340,13 +1324,13 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D7">
-        <v>5.7</v>
+        <v>18.57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1354,13 +1338,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>5.55</v>
+        <v>24.03</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1368,13 +1352,13 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D9">
-        <v>17.87</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1382,13 +1366,13 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D10">
-        <v>23.75</v>
+        <v>11.37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1396,13 +1380,13 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D11">
-        <v>18.57</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1410,13 +1394,13 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D12">
-        <v>24.03</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1424,13 +1408,13 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D13">
-        <v>10.9</v>
+        <v>18.81</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1438,13 +1422,13 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D14">
-        <v>11.37</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1452,13 +1436,13 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D15">
-        <v>11.4</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1466,13 +1450,13 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D16">
-        <v>10.94</v>
+        <v>25.73</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1480,13 +1464,13 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D17">
-        <v>18.81</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1494,13 +1478,13 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D18">
-        <v>25.52</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1508,13 +1492,13 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D19">
-        <v>19.47</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1522,13 +1506,13 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D20">
-        <v>25.73</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1536,13 +1520,13 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>11.88</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1550,13 +1534,13 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D22">
-        <v>12.45</v>
+        <v>20.44</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1564,13 +1548,13 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D23">
-        <v>12.67</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1578,13 +1562,13 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D24">
-        <v>11.91</v>
+        <v>20.65</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1592,13 +1576,13 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D25">
-        <v>14.46</v>
+        <v>9.47</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1606,13 +1590,13 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D26">
-        <v>20.44</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1620,13 +1604,13 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D27">
-        <v>14.7</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1634,68 +1618,12 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D28">
-        <v>20.65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29">
-        <v>9.470000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30">
-        <v>9.32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31">
-        <v>9.44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32">
         <v>9.59</v>
       </c>
     </row>
@@ -1709,7 +1637,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1739,13 +1667,13 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D2">
-        <v>11.2</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1753,13 +1681,13 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D3">
-        <v>16.52</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1767,13 +1695,13 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D4">
-        <v>16.67</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1781,13 +1709,13 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D5">
-        <v>5.58</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1795,13 +1723,13 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D6">
-        <v>5.73</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1809,13 +1737,13 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D7">
-        <v>5.7</v>
+        <v>18.57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1823,13 +1751,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>5.55</v>
+        <v>24.03</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1837,13 +1765,13 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D9">
-        <v>17.87</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1851,13 +1779,13 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D10">
-        <v>23.75</v>
+        <v>11.37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1865,13 +1793,13 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D11">
-        <v>18.57</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1879,13 +1807,13 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D12">
-        <v>24.03</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1893,13 +1821,13 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D13">
-        <v>10.9</v>
+        <v>18.81</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1907,13 +1835,13 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D14">
-        <v>11.37</v>
+        <v>25.54</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1921,13 +1849,13 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D15">
-        <v>11.4</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1935,13 +1863,13 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D16">
-        <v>10.92</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1949,13 +1877,13 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D17">
-        <v>18.81</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1963,13 +1891,13 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D18">
-        <v>25.54</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1977,13 +1905,13 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D19">
-        <v>19.47</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1991,13 +1919,13 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D20">
-        <v>25.75</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2005,13 +1933,13 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>11.87</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2019,13 +1947,13 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D22">
-        <v>12.45</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2033,13 +1961,13 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D23">
-        <v>12.67</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2047,13 +1975,13 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D24">
-        <v>11.91</v>
+        <v>20.67</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2061,13 +1989,13 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D25">
-        <v>14.45</v>
+        <v>9.47</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2075,13 +2003,13 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D26">
-        <v>20.48</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2089,13 +2017,13 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D27">
-        <v>14.7</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2103,68 +2031,12 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D28">
-        <v>20.67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29">
-        <v>9.470000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30">
-        <v>9.32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31">
-        <v>9.44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32">
         <v>9.59</v>
       </c>
     </row>
@@ -2178,7 +2050,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2208,13 +2080,13 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D2">
-        <v>11.2</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2222,13 +2094,13 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D3">
-        <v>16.52</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2236,13 +2108,13 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D4">
-        <v>16.67</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2250,13 +2122,13 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D5">
-        <v>5.58</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2264,13 +2136,13 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D6">
-        <v>5.73</v>
+        <v>23.77</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2278,13 +2150,13 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D7">
-        <v>5.7</v>
+        <v>18.57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2292,13 +2164,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>5.54</v>
+        <v>24.03</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2306,13 +2178,13 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D9">
-        <v>17.87</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2320,13 +2192,13 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D10">
-        <v>23.77</v>
+        <v>11.37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2334,13 +2206,13 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D11">
-        <v>18.57</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2348,13 +2220,13 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D12">
-        <v>24.03</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2362,13 +2234,13 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D13">
-        <v>10.89</v>
+        <v>18.81</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2376,13 +2248,13 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D14">
-        <v>11.37</v>
+        <v>25.54</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2390,13 +2262,13 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D15">
-        <v>11.4</v>
+        <v>19.47</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2404,13 +2276,13 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D16">
-        <v>10.92</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2418,13 +2290,13 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D17">
-        <v>18.81</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2432,13 +2304,13 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D18">
-        <v>25.54</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2446,13 +2318,13 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D19">
-        <v>19.47</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2460,13 +2332,13 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D20">
-        <v>25.75</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2474,13 +2346,13 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>11.87</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2488,13 +2360,13 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D22">
-        <v>12.47</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2502,13 +2374,13 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D23">
-        <v>12.67</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2516,13 +2388,13 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D24">
-        <v>11.91</v>
+        <v>20.67</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2530,13 +2402,13 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D25">
-        <v>14.45</v>
+        <v>9.47</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2544,13 +2416,13 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D26">
-        <v>20.48</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2558,13 +2430,13 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D27">
-        <v>14.7</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2572,68 +2444,12 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D28">
-        <v>20.67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29">
-        <v>9.470000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30">
-        <v>9.32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31">
-        <v>9.44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32">
         <v>9.59</v>
       </c>
     </row>
@@ -2806,7 +2622,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2836,13 +2652,13 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D2">
-        <v>11.21</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2850,13 +2666,13 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D3">
-        <v>16.33</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2864,13 +2680,13 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D4">
-        <v>16.52</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2878,13 +2694,13 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D5">
-        <v>5.57</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2892,13 +2708,13 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D6">
-        <v>5.76</v>
+        <v>23.69</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2906,13 +2722,13 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D7">
-        <v>5.65</v>
+        <v>18.61</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2920,13 +2736,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>5.56</v>
+        <v>23.88</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2934,13 +2750,13 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D9">
-        <v>17.87</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2948,13 +2764,13 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D10">
-        <v>23.69</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2962,13 +2778,13 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D11">
-        <v>18.61</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2976,13 +2792,13 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D12">
-        <v>23.88</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2990,13 +2806,13 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D13">
-        <v>10.95</v>
+        <v>18.82</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3004,13 +2820,13 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D14">
-        <v>11.38</v>
+        <v>25.37</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3018,13 +2834,13 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D15">
-        <v>11.39</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3032,13 +2848,13 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D16">
-        <v>10.94</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3046,13 +2862,13 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D17">
-        <v>18.82</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3060,13 +2876,13 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D18">
-        <v>25.37</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3074,13 +2890,13 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D19">
-        <v>19.5</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3088,13 +2904,13 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D20">
-        <v>25.58</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3102,13 +2918,13 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>11.91</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3116,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D22">
-        <v>12.49</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3130,13 +2946,13 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D23">
-        <v>12.67</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3144,13 +2960,13 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D24">
-        <v>11.93</v>
+        <v>20.42</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3158,13 +2974,13 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D25">
-        <v>14.45</v>
+        <v>9.47</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3172,13 +2988,13 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D26">
-        <v>20.3</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3186,13 +3002,13 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D27">
-        <v>14.67</v>
+        <v>9.46</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3200,68 +3016,12 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D28">
-        <v>20.42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29">
-        <v>9.470000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30">
-        <v>9.33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31">
-        <v>9.460000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32">
         <v>9.58</v>
       </c>
     </row>
@@ -3275,7 +3035,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3305,13 +3065,13 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D2">
-        <v>11.21</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3319,13 +3079,13 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D3">
-        <v>16.33</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3333,13 +3093,13 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D4">
-        <v>16.56</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3347,13 +3107,13 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D5">
-        <v>5.57</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3361,13 +3121,13 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D6">
-        <v>5.76</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3375,13 +3135,13 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D7">
-        <v>5.66</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3389,13 +3149,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>5.57</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3403,13 +3163,13 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D9">
-        <v>17.87</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3417,13 +3177,13 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D10">
-        <v>23.73</v>
+        <v>11.37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3431,13 +3191,13 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D11">
-        <v>18.6</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3445,13 +3205,13 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D12">
-        <v>23.9</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3459,13 +3219,13 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D13">
-        <v>10.95</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3473,13 +3233,13 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D14">
-        <v>11.37</v>
+        <v>25.37</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3487,13 +3247,13 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D15">
-        <v>11.4</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3501,13 +3261,13 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D16">
-        <v>10.95</v>
+        <v>25.61</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3515,13 +3275,13 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D17">
-        <v>18.8</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3529,13 +3289,13 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D18">
-        <v>25.37</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3543,13 +3303,13 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D19">
-        <v>19.5</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3557,13 +3317,13 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D20">
-        <v>25.61</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3571,13 +3331,13 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>11.89</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3585,13 +3345,13 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D22">
-        <v>12.47</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3599,13 +3359,13 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D23">
-        <v>12.67</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3613,13 +3373,13 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D24">
-        <v>11.93</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3627,13 +3387,13 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D25">
-        <v>14.45</v>
+        <v>9.46</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3641,13 +3401,13 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D26">
-        <v>20.32</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3655,13 +3415,13 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D27">
-        <v>14.67</v>
+        <v>9.45</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3669,68 +3429,12 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D28">
-        <v>20.48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29">
-        <v>9.460000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30">
-        <v>9.33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31">
-        <v>9.449999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32">
         <v>9.59</v>
       </c>
     </row>
@@ -3744,7 +3448,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3774,13 +3478,13 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D2">
-        <v>11.2</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3788,13 +3492,13 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D3">
-        <v>16.42</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3802,13 +3506,13 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D4">
-        <v>16.59</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3816,13 +3520,13 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D5">
-        <v>5.57</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3830,13 +3534,13 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D6">
-        <v>5.76</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3844,13 +3548,13 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D7">
-        <v>5.67</v>
+        <v>18.58</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3858,13 +3562,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>5.58</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3872,13 +3576,13 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D9">
-        <v>17.87</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3886,13 +3590,13 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D10">
-        <v>23.73</v>
+        <v>11.37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3900,13 +3604,13 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D11">
-        <v>18.58</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3914,13 +3618,13 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D12">
-        <v>23.9</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3928,13 +3632,13 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D13">
-        <v>10.94</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3942,13 +3646,13 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D14">
-        <v>11.37</v>
+        <v>25.48</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3956,13 +3660,13 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D15">
-        <v>11.39</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3970,13 +3674,13 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D16">
-        <v>10.95</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3984,13 +3688,13 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D17">
-        <v>18.8</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3998,13 +3702,13 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D18">
-        <v>25.48</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4012,13 +3716,13 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D19">
-        <v>19.5</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4026,13 +3730,13 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D20">
-        <v>25.63</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4040,13 +3744,13 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>11.89</v>
+        <v>14.47</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4054,13 +3758,13 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D22">
-        <v>12.45</v>
+        <v>20.36</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4068,13 +3772,13 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D23">
-        <v>12.68</v>
+        <v>14.69</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4082,13 +3786,13 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D24">
-        <v>11.94</v>
+        <v>20.53</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4096,13 +3800,13 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D25">
-        <v>14.47</v>
+        <v>9.46</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4110,13 +3814,13 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D26">
-        <v>20.36</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4124,13 +3828,13 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D27">
-        <v>14.69</v>
+        <v>9.45</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4138,68 +3842,12 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D28">
-        <v>20.53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29">
-        <v>9.460000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30">
-        <v>9.32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31">
-        <v>9.449999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32">
         <v>9.59</v>
       </c>
     </row>
@@ -4213,7 +3861,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4243,13 +3891,13 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D2">
-        <v>11.2</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4257,13 +3905,13 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D3">
-        <v>16.44</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4271,13 +3919,13 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D4">
-        <v>16.63</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4285,13 +3933,13 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D5">
-        <v>5.57</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4299,13 +3947,13 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D6">
-        <v>5.75</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4313,13 +3961,13 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D7">
-        <v>5.7</v>
+        <v>18.57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4327,13 +3975,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>5.56</v>
+        <v>23.96</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4341,13 +3989,13 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D9">
-        <v>17.87</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4355,13 +4003,13 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D10">
-        <v>23.73</v>
+        <v>11.37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4369,13 +4017,13 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D11">
-        <v>18.57</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4383,13 +4031,13 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D12">
-        <v>23.96</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4397,13 +4045,13 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D13">
-        <v>10.94</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4411,13 +4059,13 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D14">
-        <v>11.37</v>
+        <v>25.48</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4425,13 +4073,13 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D15">
-        <v>11.42</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4439,13 +4087,13 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D16">
-        <v>10.95</v>
+        <v>25.71</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4453,13 +4101,13 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D17">
-        <v>18.8</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4467,13 +4115,13 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D18">
-        <v>25.48</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4481,13 +4129,13 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D19">
-        <v>19.5</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4495,13 +4143,13 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D20">
-        <v>25.71</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4509,13 +4157,13 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>11.89</v>
+        <v>14.47</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4523,13 +4171,13 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D22">
-        <v>12.48</v>
+        <v>20.36</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4537,13 +4185,13 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D23">
-        <v>12.65</v>
+        <v>14.69</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4551,13 +4199,13 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D24">
-        <v>11.93</v>
+        <v>20.57</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4565,13 +4213,13 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D25">
-        <v>14.47</v>
+        <v>9.46</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4579,13 +4227,13 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D26">
-        <v>20.36</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4593,13 +4241,13 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D27">
-        <v>14.69</v>
+        <v>9.45</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4607,68 +4255,12 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D28">
-        <v>20.57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29">
-        <v>9.460000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30">
-        <v>9.32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31">
-        <v>9.449999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32">
         <v>9.59</v>
       </c>
     </row>
@@ -4682,7 +4274,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4712,13 +4304,13 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D2">
-        <v>11.21</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4726,13 +4318,13 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D3">
-        <v>16.46</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4740,13 +4332,13 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D4">
-        <v>16.65</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4754,13 +4346,13 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D5">
-        <v>5.57</v>
+        <v>17.85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4768,13 +4360,13 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D6">
-        <v>5.74</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4782,13 +4374,13 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D7">
-        <v>5.7</v>
+        <v>18.56</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4796,13 +4388,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>5.56</v>
+        <v>23.96</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4810,13 +4402,13 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D9">
-        <v>17.85</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4824,13 +4416,13 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D10">
-        <v>23.73</v>
+        <v>11.37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4838,13 +4430,13 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D11">
-        <v>18.56</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4852,13 +4444,13 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D12">
-        <v>23.96</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4866,13 +4458,13 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D13">
-        <v>10.91</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4880,13 +4472,13 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D14">
-        <v>11.37</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4894,13 +4486,13 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D15">
-        <v>11.4</v>
+        <v>19.46</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4908,13 +4500,13 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D16">
-        <v>10.95</v>
+        <v>25.73</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4922,13 +4514,13 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D17">
-        <v>18.8</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4936,13 +4528,13 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D18">
-        <v>25.5</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4950,13 +4542,13 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D19">
-        <v>19.46</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4964,13 +4556,13 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D20">
-        <v>25.73</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4978,13 +4570,13 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>11.89</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4992,13 +4584,13 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D22">
-        <v>12.45</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5006,13 +4598,13 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D23">
-        <v>12.66</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5020,13 +4612,13 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D24">
-        <v>11.92</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5034,13 +4626,13 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D25">
-        <v>14.46</v>
+        <v>9.46</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5048,13 +4640,13 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D26">
-        <v>20.4</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5062,13 +4654,13 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D27">
-        <v>14.71</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5076,68 +4668,12 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D28">
-        <v>20.59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29">
-        <v>9.460000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30">
-        <v>9.32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31">
-        <v>9.44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32">
         <v>9.59</v>
       </c>
     </row>
@@ -5151,7 +4687,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5181,13 +4717,13 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D2">
-        <v>11.2</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5195,13 +4731,13 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D3">
-        <v>16.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5209,13 +4745,13 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D4">
-        <v>16.67</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5223,13 +4759,13 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D5">
-        <v>5.57</v>
+        <v>17.85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5237,13 +4773,13 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D6">
-        <v>5.74</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5251,13 +4787,13 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D7">
-        <v>5.7</v>
+        <v>18.57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5265,13 +4801,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>5.55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5279,13 +4815,13 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D9">
-        <v>17.85</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5293,13 +4829,13 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D10">
-        <v>23.75</v>
+        <v>11.37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5307,13 +4843,13 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D11">
-        <v>18.57</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5321,13 +4857,13 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5335,13 +4871,13 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D13">
-        <v>10.9</v>
+        <v>18.81</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5349,13 +4885,13 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D14">
-        <v>11.37</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5363,13 +4899,13 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D15">
-        <v>11.4</v>
+        <v>19.49</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5377,13 +4913,13 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D16">
-        <v>10.94</v>
+        <v>25.73</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5391,13 +4927,13 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D17">
-        <v>18.81</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5405,13 +4941,13 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D18">
-        <v>25.5</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5419,13 +4955,13 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D19">
-        <v>19.49</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5433,13 +4969,13 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D20">
-        <v>25.73</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5447,13 +4983,13 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>11.89</v>
+        <v>14.47</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5461,13 +4997,13 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D22">
-        <v>12.45</v>
+        <v>20.42</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5475,13 +5011,13 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D23">
-        <v>12.68</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5489,13 +5025,13 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D24">
-        <v>11.92</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5503,13 +5039,13 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D25">
-        <v>14.47</v>
+        <v>9.46</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5517,13 +5053,13 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D26">
-        <v>20.42</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5531,13 +5067,13 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D27">
-        <v>14.7</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5545,68 +5081,12 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D28">
-        <v>20.63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29">
-        <v>9.460000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30">
-        <v>9.33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31">
-        <v>9.44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32">
         <v>9.59</v>
       </c>
     </row>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="115">
   <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,10 +72,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>ngDe</t>
-  </si>
-  <si>
-    <t>20220614</t>
+    <t>jovyan</t>
   </si>
   <si>
     <t>Project Information</t>
@@ -111,7 +108,10 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>O.Hensby</t>
+    <t>20220615</t>
+  </si>
+  <si>
+    <t>/c/e</t>
   </si>
   <si>
     <t>index</t>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-14 16:38:28.591667</t>
+    <t>2022-06-15 10:33:16.688962</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -376,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,14 +387,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -457,7 +449,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -561,10 +553,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Author"/>
+    <tableColumn id="2" name="Author"/>
+    <tableColumn id="3" name="sheet_name"/>
+    <tableColumn id="4" name="Date"/>
+    <tableColumn id="5" name="JobNo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -579,7 +571,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -592,7 +584,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -605,7 +597,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -616,7 +608,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Information"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -627,7 +619,7 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Definition"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -640,7 +632,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -653,7 +645,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -666,7 +658,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -679,7 +671,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -692,7 +684,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -705,7 +697,7 @@
     <tableColumn id="3" name="Fixed Temp Criterion (Pass/Fail)"/>
     <tableColumn id="4" name="Fixed Temp Criterion (% Hours Operative Temp &gt; 26 Deg. Celsius)"/>
   </tableColumns>
-  <tableStyleInfo name="None" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1037,7 +1029,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1051,10 +1043,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1068,10 +1060,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1085,10 +1077,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1102,10 +1094,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1119,10 +1111,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1136,10 +1128,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1153,10 +1145,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1170,10 +1162,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1187,10 +1179,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1204,7 +1196,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -1582,7 +1574,7 @@
         <v>114</v>
       </c>
       <c r="D25">
-        <v>9.47</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1995,7 +1987,7 @@
         <v>114</v>
       </c>
       <c r="D25">
-        <v>9.47</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2408,7 +2400,7 @@
         <v>114</v>
       </c>
       <c r="D25">
-        <v>9.47</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2980,7 +2972,7 @@
         <v>114</v>
       </c>
       <c r="D25">
-        <v>9.47</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3008,7 +3000,7 @@
         <v>114</v>
       </c>
       <c r="D27">
-        <v>9.46</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3393,7 +3385,7 @@
         <v>114</v>
       </c>
       <c r="D25">
-        <v>9.46</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3421,7 +3413,7 @@
         <v>114</v>
       </c>
       <c r="D27">
-        <v>9.45</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3806,7 +3798,7 @@
         <v>114</v>
       </c>
       <c r="D25">
-        <v>9.46</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3834,7 +3826,7 @@
         <v>114</v>
       </c>
       <c r="D27">
-        <v>9.45</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4219,7 +4211,7 @@
         <v>114</v>
       </c>
       <c r="D25">
-        <v>9.46</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4247,7 +4239,7 @@
         <v>114</v>
       </c>
       <c r="D27">
-        <v>9.45</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4632,7 +4624,7 @@
         <v>114</v>
       </c>
       <c r="D25">
-        <v>9.46</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5045,7 +5037,7 @@
         <v>114</v>
       </c>
       <c r="D25">
-        <v>9.46</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4">

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="115">
   <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,48 +72,48 @@
     <t>10</t>
   </si>
   <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
     <t>20220615</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-15 10:33:16.688962</t>
+    <t>2022-06-15 12:25:26.576208</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -553,10 +553,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
+    <tableColumn id="2" name="JobNo"/>
     <tableColumn id="3" name="sheet_name"/>
-    <tableColumn id="4" name="Date"/>
-    <tableColumn id="5" name="JobNo"/>
+    <tableColumn id="4" name="Author"/>
+    <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -27,15 +27,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="115">
   <si>
+    <t>Author</t>
+  </si>
+  <si>
     <t>JobNo</t>
   </si>
   <si>
     <t>sheet_name</t>
   </si>
   <si>
-    <t>Author</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -72,6 +72,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>jovyan</t>
+  </si>
+  <si>
     <t>/c/e</t>
   </si>
   <si>
@@ -108,9 +111,6 @@
     <t>Results, Air Speed 0.8</t>
   </si>
   <si>
-    <t>jovyan</t>
-  </si>
-  <si>
     <t>20220615</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-15 12:25:26.576208</t>
+    <t>2022-06-15 15:57:20.064427</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -553,9 +553,9 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="JobNo"/>
-    <tableColumn id="3" name="sheet_name"/>
-    <tableColumn id="4" name="Author"/>
+    <tableColumn id="2" name="Author"/>
+    <tableColumn id="3" name="JobNo"/>
+    <tableColumn id="4" name="sheet_name"/>
     <tableColumn id="5" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1029,7 +1029,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1043,10 +1043,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1060,10 +1060,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1077,10 +1077,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1094,10 +1094,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1111,10 +1111,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1128,10 +1128,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1145,10 +1145,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1162,10 +1162,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1179,10 +1179,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1196,7 +1196,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -27,18 +27,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="115">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -72,48 +72,48 @@
     <t>10</t>
   </si>
   <si>
+    <t>20220615</t>
+  </si>
+  <si>
+    <t>/c/e</t>
+  </si>
+  <si>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
+  </si>
+  <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>/c/e</t>
-  </si>
-  <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
-  </si>
-  <si>
-    <t>20220615</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-15 15:57:20.064427</t>
+    <t>2022-06-15 17:01:49.513190</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -553,10 +553,10 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Author"/>
+    <tableColumn id="2" name="Date"/>
     <tableColumn id="3" name="JobNo"/>
     <tableColumn id="4" name="sheet_name"/>
-    <tableColumn id="5" name="Date"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -27,15 +27,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="115">
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>JobNo</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>JobNo</t>
-  </si>
-  <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -72,43 +72,43 @@
     <t>10</t>
   </si>
   <si>
-    <t>20220615</t>
+    <t>Project Information</t>
+  </si>
+  <si>
+    <t>Criterion Definitions</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.15</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.2</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.3</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.4</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.5</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.6</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.7</t>
+  </si>
+  <si>
+    <t>Results, Air Speed 0.8</t>
   </si>
   <si>
     <t>/c/e</t>
   </si>
   <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>Criterion Definitions</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.15</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.2</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.3</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.4</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.5</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.6</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.7</t>
-  </si>
-  <si>
-    <t>Results, Air Speed 0.8</t>
+    <t>20220711</t>
   </si>
   <si>
     <t>jovyan</t>
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-06-15 17:01:49.513190</t>
+    <t>2022-07-11 15:53:12.957898</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
@@ -553,9 +553,9 @@
   <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Date"/>
+    <tableColumn id="2" name="sheet_name"/>
     <tableColumn id="3" name="JobNo"/>
-    <tableColumn id="4" name="sheet_name"/>
+    <tableColumn id="4" name="Date"/>
     <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1026,10 +1026,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
@@ -1040,13 +1040,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
@@ -1057,13 +1057,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
@@ -1074,13 +1074,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>28</v>
@@ -1091,13 +1091,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1108,13 +1108,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
@@ -1125,13 +1125,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -1142,13 +1142,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1159,13 +1159,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -1176,13 +1176,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1193,10 +1193,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-07-11 15:53:12.957898</t>
+    <t>2022-07-11 16:10:22.638856</t>
   </si>
   <si>
     <t>2021.4.0.0</t>

--- a/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
+++ b/tests/testmodels/TestJob1/mf_results/tm59mechvent/TM59MechVent__TestJob1.xlsx
@@ -183,7 +183,7 @@
     <t>51.38</t>
   </si>
   <si>
-    <t>2022-07-11 16:10:22.638856</t>
+    <t>2022-07-11 16:26:07.833981</t>
   </si>
   <si>
     <t>2021.4.0.0</t>
